--- a/总结.xlsx
+++ b/总结.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ED1036-CED3-4BFB-8592-1DF0207BC29A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C81CF4-CC01-4100-BB43-29C205CECB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,157 +25,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>题号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标题</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>难度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标签</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相似题</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>备注</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作计划的最低难度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>困难</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动态规划</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>区间划分成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>段，每个段的最大值相加，要求和最小</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I:O(n)+k, S:O(n^2), T:O(n^2*k)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+  <si>
+    <t>2刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作计划的最低难度</t>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相似题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周中的第几天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闰年问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对称二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归，树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n)+k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n^2*k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(logn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,11 +186,48 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,17 +251,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -534,74 +556,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:G3"/>
+      <selection activeCell="B2" sqref="B2:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1335</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1335</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1547</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>1185</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J1:L1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:L1048576" xr:uid="{F419E953-71D5-4276-90D4-646502B49A76}">
+      <formula1>"O,P"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="1335" xr:uid="{2F3476F4-24FA-4C46-8A92-DD8A32D37306}"/>
-    <hyperlink ref="E2" r:id="rId2" display="1547" xr:uid="{EED47A59-5C69-449B-A4E8-26F0130F3C15}"/>
+    <hyperlink ref="A3" r:id="rId2" display="1185" xr:uid="{3FA46BB3-5D6D-44C2-97FB-34ED4904FA53}"/>
+    <hyperlink ref="A4" r:id="rId3" display="101" xr:uid="{2A64E8C0-80ED-4B22-9FBB-CF00F19A8F80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C81CF4-CC01-4100-BB43-29C205CECB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5694C317-0171-44BB-BB13-00B5789BD90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>递归，树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入规模</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,6 +138,26 @@
   </si>
   <si>
     <t>O(logn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，图，BFS，递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树转图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树中所有距离为K的结点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，递归</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,17 +575,17 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="4.875" style="3" bestFit="1" customWidth="1"/>
@@ -596,13 +612,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
@@ -632,13 +648,13 @@
         <v>5</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -659,13 +675,13 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -680,20 +696,35 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>863</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="J5" s="4"/>
     </row>
   </sheetData>
@@ -715,8 +746,9 @@
     <hyperlink ref="A2" r:id="rId1" display="1335" xr:uid="{2F3476F4-24FA-4C46-8A92-DD8A32D37306}"/>
     <hyperlink ref="A3" r:id="rId2" display="1185" xr:uid="{3FA46BB3-5D6D-44C2-97FB-34ED4904FA53}"/>
     <hyperlink ref="A4" r:id="rId3" display="101" xr:uid="{2A64E8C0-80ED-4B22-9FBB-CF00F19A8F80}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://leetcode-cn.com/problems/all-nodes-distance-k-in-binary-tree/" xr:uid="{472A03D6-42CC-4654-9F9B-C15459F61A55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5694C317-0171-44BB-BB13-00B5789BD90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C1A98-2A45-4261-933D-545E3CABD3C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$36</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="133">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,23 +144,403 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>树转图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树中所有距离为K的结点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>中等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树，图，BFS，递归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树转图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树中所有距离为K的结点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树，递归</t>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用最小花费爬楼梯</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>贪心，动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n)-&gt;O(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳格子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形最小路径和</t>
+  </si>
+  <si>
+    <t>接雨水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+  </si>
+  <si>
+    <t>由斜杠划分区域</t>
+  </si>
+  <si>
+    <t>朋友圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石子游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频拼接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测赢家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维区域和检索 - 矩阵不可变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域和检索 - 数组不可变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戳气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌溉花园的最少水龙头数目</t>
+  </si>
+  <si>
+    <t>切棍子的最小成本</t>
+  </si>
+  <si>
+    <t>二叉搜索树中第K小的元素</t>
+  </si>
+  <si>
+    <t>可能的二分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙和房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最短的桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交线路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水位上升的泳池中游泳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可怜的小猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段式回文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z字形变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石子游戏V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆波兰表达式求值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长湍流子数组</t>
+  </si>
+  <si>
+    <t>填充每个节点的下一个右侧节点指针</t>
+  </si>
+  <si>
+    <t>拼写单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数到小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回文数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转矩阵后的得分</t>
+  </si>
+  <si>
+    <t>分糖果II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数组拆分成斐波那契序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计有序矩阵中的负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马数字转整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长公共前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并两个有序链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆炸弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取生成数组中的最大值</t>
+  </si>
+  <si>
+    <t>设计有序流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索插入位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬水找零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现strStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除排序数组中的重复项</t>
+  </si>
+  <si>
+    <t>Dota2参议院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观数列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大子序和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一个单词的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母异位词分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除排序链表中的重复元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只出现一次的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两数之和 II - 输入有序数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel表列名称</t>
+  </si>
+  <si>
+    <t>多数元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x的平方根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调递增的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并两个有序数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同的树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的最大深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的层序遍历 II </t>
+  </si>
+  <si>
+    <t>将有序数组转换为二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的最小深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨辉三角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨辉三角II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖股票的最佳时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖股票的最佳时机II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证回文串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环形链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相交链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel表列序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颠倒二进制位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位1的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖股票的最佳时机含手续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶乘后的零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打家劫舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，图，BFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +548,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,16 +628,30 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -262,12 +659,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,12 +692,31 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC363"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -298,6 +729,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC363"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -572,183 +1008,1603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.75" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>44123</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>44124</v>
+      </c>
+      <c r="B3" s="10">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>44125</v>
+      </c>
+      <c r="B4" s="10">
+        <v>120</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>44126</v>
+      </c>
+      <c r="B5" s="10">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>44127</v>
+      </c>
+      <c r="B6" s="10">
+        <v>547</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>44127</v>
+      </c>
+      <c r="B7" s="10">
+        <v>959</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>44130</v>
+      </c>
+      <c r="B8" s="10">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>44130</v>
+      </c>
+      <c r="B9" s="10">
+        <v>877</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>44131</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1024</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>44132</v>
+      </c>
+      <c r="B11" s="10">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>44132</v>
+      </c>
+      <c r="B12" s="10">
+        <v>202</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>44133</v>
+      </c>
+      <c r="B13" s="10">
+        <v>486</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>44135</v>
+      </c>
+      <c r="B14" s="10">
+        <v>174</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>44135</v>
+      </c>
+      <c r="B15" s="10">
+        <v>303</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>44135</v>
+      </c>
+      <c r="B16" s="10">
+        <v>304</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>44137</v>
+      </c>
+      <c r="B17" s="10">
+        <v>312</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>44137</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1326</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>44138</v>
+      </c>
+      <c r="B19" s="6">
         <v>1335</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>44139</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1547</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>44140</v>
+      </c>
+      <c r="B21" s="10">
+        <v>101</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>44140</v>
+      </c>
+      <c r="B22" s="10">
+        <v>230</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>44140</v>
+      </c>
+      <c r="B23" s="10">
         <v>1185</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>44141</v>
+      </c>
+      <c r="B24" s="10">
+        <v>863</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>44142</v>
+      </c>
+      <c r="B25" s="10">
+        <v>817</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>44142</v>
+      </c>
+      <c r="B26" s="10">
+        <v>841</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>44142</v>
+      </c>
+      <c r="B27" s="10">
+        <v>886</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>44144</v>
+      </c>
+      <c r="B28" s="10">
+        <v>934</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>44145</v>
+      </c>
+      <c r="B29" s="10">
+        <v>707</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <v>44145</v>
+      </c>
+      <c r="B30" s="10">
+        <v>778</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <v>44145</v>
+      </c>
+      <c r="B31" s="10">
+        <v>815</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <v>44147</v>
+      </c>
+      <c r="B32" s="10">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>44147</v>
+      </c>
+      <c r="B33" s="10">
+        <v>458</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>44147</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1147</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
+        <v>44147</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1563</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
+        <v>44148</v>
+      </c>
+      <c r="B36" s="10">
+        <v>150</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <v>44148</v>
+      </c>
+      <c r="B37" s="10">
+        <v>978</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
+        <v>44151</v>
+      </c>
+      <c r="B38" s="10">
+        <v>116</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
+        <v>44151</v>
+      </c>
+      <c r="B39" s="10">
+        <v>166</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
+        <v>44151</v>
+      </c>
+      <c r="B40" s="10">
+        <v>1160</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <v>44152</v>
+      </c>
+      <c r="B41" s="10">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>44172</v>
+      </c>
+      <c r="B42" s="10">
+        <v>861</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
+        <v>44172</v>
+      </c>
+      <c r="B43" s="10">
+        <v>1103</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <v>44173</v>
+      </c>
+      <c r="B44" s="10">
+        <v>842</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
+        <v>44174</v>
+      </c>
+      <c r="B45" s="10">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>44174</v>
+      </c>
+      <c r="B46" s="10">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
+        <v>44174</v>
+      </c>
+      <c r="B47" s="10">
+        <v>21</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="13">
+        <v>44174</v>
+      </c>
+      <c r="B48" s="10">
+        <v>62</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
+        <v>44174</v>
+      </c>
+      <c r="B49" s="10">
+        <v>1351</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
+        <v>44175</v>
+      </c>
+      <c r="B50" s="10">
+        <v>26</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="13">
+        <v>44175</v>
+      </c>
+      <c r="B51" s="10">
+        <v>27</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="13">
+        <v>44175</v>
+      </c>
+      <c r="B52" s="10">
+        <v>28</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="13">
+        <v>44175</v>
+      </c>
+      <c r="B53" s="10">
+        <v>35</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="13">
+        <v>44175</v>
+      </c>
+      <c r="B54" s="10">
+        <v>860</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
+        <v>44175</v>
+      </c>
+      <c r="B55" s="10">
+        <v>1646</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="13">
+        <v>44175</v>
+      </c>
+      <c r="B56" s="10">
+        <v>1652</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
+        <v>44175</v>
+      </c>
+      <c r="B57" s="10">
+        <v>1656</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="13">
+        <v>44176</v>
+      </c>
+      <c r="B58" s="10">
+        <v>38</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="13">
+        <v>44176</v>
+      </c>
+      <c r="B59" s="10">
+        <v>53</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="13">
+        <v>44176</v>
+      </c>
+      <c r="B60" s="10">
+        <v>58</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="13">
+        <v>44176</v>
+      </c>
+      <c r="B61" s="10">
+        <v>66</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="13">
+        <v>44176</v>
+      </c>
+      <c r="B62" s="10">
+        <v>67</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="13">
+        <v>44176</v>
+      </c>
+      <c r="B63" s="10">
+        <v>649</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="13">
+        <v>44179</v>
+      </c>
+      <c r="B64" s="10">
+        <v>49</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="13">
+        <v>44179</v>
+      </c>
+      <c r="B65" s="10">
+        <v>83</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="D65" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="13">
+        <v>44179</v>
+      </c>
+      <c r="B66" s="10">
+        <v>136</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="13">
+        <v>44179</v>
+      </c>
+      <c r="B67" s="10">
+        <v>167</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="13">
+        <v>44179</v>
+      </c>
+      <c r="B68" s="10">
+        <v>168</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="13">
+        <v>44179</v>
+      </c>
+      <c r="B69" s="10">
+        <v>169</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="13">
+        <v>44180</v>
+      </c>
+      <c r="B70" s="10">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="13">
+        <v>44180</v>
+      </c>
+      <c r="B71" s="10">
+        <v>88</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="13">
+        <v>44180</v>
+      </c>
+      <c r="B72" s="10">
+        <v>100</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="13">
+        <v>44180</v>
+      </c>
+      <c r="B73" s="10">
+        <v>104</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="13">
+        <v>44180</v>
+      </c>
+      <c r="B74" s="10">
+        <v>107</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="13">
+        <v>44180</v>
+      </c>
+      <c r="B75" s="10">
+        <v>108</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="13">
+        <v>44180</v>
+      </c>
+      <c r="B76" s="10">
+        <v>110</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="13">
+        <v>44180</v>
+      </c>
+      <c r="B77" s="10">
+        <v>111</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="13">
+        <v>44180</v>
+      </c>
+      <c r="B78" s="10">
+        <v>112</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="13">
+        <v>44180</v>
+      </c>
+      <c r="B79" s="10">
+        <v>118</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="13">
+        <v>44180</v>
+      </c>
+      <c r="B80" s="10">
+        <v>119</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="13">
+        <v>44180</v>
+      </c>
+      <c r="B81" s="10">
+        <v>738</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="13">
+        <v>44181</v>
+      </c>
+      <c r="B82" s="10">
+        <v>121</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="13">
+        <v>44181</v>
+      </c>
+      <c r="B83" s="10">
+        <v>122</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="13">
+        <v>44181</v>
+      </c>
+      <c r="B84" s="10">
+        <v>125</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="13">
+        <v>44181</v>
+      </c>
+      <c r="B85" s="10">
+        <v>141</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="13">
+        <v>44181</v>
+      </c>
+      <c r="B86" s="10">
+        <v>155</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="13">
+        <v>44181</v>
+      </c>
+      <c r="B87" s="10">
+        <v>160</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="13">
+        <v>44181</v>
+      </c>
+      <c r="B88" s="10">
+        <v>171</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="13">
+        <v>44181</v>
+      </c>
+      <c r="B89" s="10">
+        <v>190</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="13">
+        <v>44181</v>
+      </c>
+      <c r="B90" s="10">
+        <v>191</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="13">
+        <v>44181</v>
+      </c>
+      <c r="B91" s="10">
+        <v>290</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="13">
+        <v>44182</v>
+      </c>
+      <c r="B92" s="10">
+        <v>714</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="13">
+        <v>44183</v>
+      </c>
+      <c r="B93" s="10">
+        <v>172</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="13">
+        <v>44183</v>
+      </c>
+      <c r="B94" s="10">
+        <v>198</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="13">
+        <v>44183</v>
+      </c>
+      <c r="B95" s="10">
+        <v>389</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="13">
+        <v>44186</v>
+      </c>
+      <c r="B96" s="10">
+        <v>746</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>863</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M96">
+    <sortCondition ref="A1:A96"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J1:L1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="K1:M1048576">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:L1048576" xr:uid="{F419E953-71D5-4276-90D4-646502B49A76}">
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"中等"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"简单"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"困难"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{5E0A96A5-0F78-4AB9-B297-D3C06A66C8C9}">
+      <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:M1048576" xr:uid="{F419E953-71D5-4276-90D4-646502B49A76}">
       <formula1>"O,P"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="1335" xr:uid="{2F3476F4-24FA-4C46-8A92-DD8A32D37306}"/>
-    <hyperlink ref="A3" r:id="rId2" display="1185" xr:uid="{3FA46BB3-5D6D-44C2-97FB-34ED4904FA53}"/>
-    <hyperlink ref="A4" r:id="rId3" display="101" xr:uid="{2A64E8C0-80ED-4B22-9FBB-CF00F19A8F80}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://leetcode-cn.com/problems/all-nodes-distance-k-in-binary-tree/" xr:uid="{472A03D6-42CC-4654-9F9B-C15459F61A55}"/>
+    <hyperlink ref="B23" r:id="rId1" display="1185" xr:uid="{3FA46BB3-5D6D-44C2-97FB-34ED4904FA53}"/>
+    <hyperlink ref="B21" r:id="rId2" display="101" xr:uid="{2A64E8C0-80ED-4B22-9FBB-CF00F19A8F80}"/>
+    <hyperlink ref="B24" r:id="rId3" display="https://leetcode-cn.com/problems/all-nodes-distance-k-in-binary-tree/" xr:uid="{472A03D6-42CC-4654-9F9B-C15459F61A55}"/>
+    <hyperlink ref="B96" r:id="rId4" display="746" xr:uid="{34A3FCBA-1D63-4F20-A8D3-147D052BB575}"/>
+    <hyperlink ref="B2" r:id="rId5" display="https://leetcode-cn.com/problems/two-sum/" xr:uid="{98105F7D-3D0E-4A22-A036-E0FD0018F75C}"/>
+    <hyperlink ref="B3" r:id="rId6" display="15" xr:uid="{54CABAF4-0185-49AD-8303-3F1E2CCFFF4F}"/>
+    <hyperlink ref="B4" r:id="rId7" display="120" xr:uid="{8D13F136-94B1-4A92-8D27-D0EA7201F3DB}"/>
+    <hyperlink ref="B5" r:id="rId8" display="42" xr:uid="{BE83FC6E-08A5-490A-AABB-407BE475FFE6}"/>
+    <hyperlink ref="B7" r:id="rId9" display="959" xr:uid="{18C0D5C6-C18D-443D-9817-193438FA9341}"/>
+    <hyperlink ref="B6" r:id="rId10" display="547" xr:uid="{2D30A28B-2834-4721-89EF-290946C96417}"/>
+    <hyperlink ref="B8" r:id="rId11" display="70" xr:uid="{5741FF40-8556-4162-A83F-5529269C38DB}"/>
+    <hyperlink ref="B9" r:id="rId12" display="877" xr:uid="{481FF11C-BCEC-4AAD-8F04-DEF5A01ADFAD}"/>
+    <hyperlink ref="B10" r:id="rId13" display="1024" xr:uid="{C0F90538-6850-411E-B824-F0EB4827F97F}"/>
+    <hyperlink ref="B11" r:id="rId14" display="20" xr:uid="{ADC40E8C-CB67-4A73-968A-16051C06BDB0}"/>
+    <hyperlink ref="B12" r:id="rId15" display="202" xr:uid="{D634C8CA-8077-4478-8AFE-0A3C9A28A202}"/>
+    <hyperlink ref="B13" r:id="rId16" tooltip="https://leetcode-cn.com/problems/predict-the-winner" display="486" xr:uid="{3DA36A65-BB25-4E08-9432-A10B791505BD}"/>
+    <hyperlink ref="B14" r:id="rId17" display="174" xr:uid="{3AD0CAEB-7DC5-4603-A7B5-4B9B33D12BB0}"/>
+    <hyperlink ref="B15" r:id="rId18" display="303" xr:uid="{BD084410-47FF-40F5-9D89-868E6867072B}"/>
+    <hyperlink ref="B16" r:id="rId19" display="304" xr:uid="{9160EFF7-F06E-43D3-923C-DB0CB670F748}"/>
+    <hyperlink ref="B17" r:id="rId20" display="312" xr:uid="{152D5D49-AD92-4835-8F08-4D725CE53AA4}"/>
+    <hyperlink ref="B18" r:id="rId21" display="1326" xr:uid="{0C2A870A-BBE9-436C-AE28-B4018C083647}"/>
+    <hyperlink ref="B20" r:id="rId22" display="1547" xr:uid="{03A67C5C-B384-4030-AC70-F4F68A27BA41}"/>
+    <hyperlink ref="B22" r:id="rId23" display="230" xr:uid="{62325C9C-D258-4150-963B-846D95F34F5C}"/>
+    <hyperlink ref="B19" r:id="rId24" display="1335" xr:uid="{2F3476F4-24FA-4C46-8A92-DD8A32D37306}"/>
+    <hyperlink ref="B27" r:id="rId25" display="886" xr:uid="{4EC76FC6-5CFB-4FF1-BA13-9ADE127AD557}"/>
+    <hyperlink ref="B26" r:id="rId26" display="841" xr:uid="{6CCB2825-7B0F-4E2A-8113-390295BFF7BA}"/>
+    <hyperlink ref="B25" r:id="rId27" display="817" xr:uid="{C0C4F0EF-2E80-48EA-A4E0-C7D7321C9158}"/>
+    <hyperlink ref="B28" r:id="rId28" display="934" xr:uid="{172775B1-868B-447E-8D6F-6E5662A2ACDE}"/>
+    <hyperlink ref="B31" r:id="rId29" display="815" xr:uid="{2DAB1154-499F-41AC-95BB-A356982EAD7A}"/>
+    <hyperlink ref="B30" r:id="rId30" display="778" xr:uid="{D4580742-CB8B-431A-8C2B-8B393A8AA76E}"/>
+    <hyperlink ref="B29" r:id="rId31" display="707" xr:uid="{0D6211A7-92EB-48A6-B989-97209C06F891}"/>
+    <hyperlink ref="B33" r:id="rId32" display="458" xr:uid="{7BE7EC87-5B41-4425-9B10-D8B047431D9F}"/>
+    <hyperlink ref="B34" r:id="rId33" display="1147" xr:uid="{6E956964-ABBE-495E-9C59-0BDC8896CD4F}"/>
+    <hyperlink ref="B32" r:id="rId34" display="6" xr:uid="{215B310F-0129-4361-AD3A-A9172AED1210}"/>
+    <hyperlink ref="B35" r:id="rId35" display="1563" xr:uid="{51BE1C49-434B-46AF-BCCC-F61EC3F52678}"/>
+    <hyperlink ref="B36" r:id="rId36" display="150" xr:uid="{7FB07332-75D7-4DF5-A715-0205E896DD5F}"/>
+    <hyperlink ref="B37" r:id="rId37" display="978" xr:uid="{8CE09E5A-E855-4630-AA22-57CEC4DB5674}"/>
+    <hyperlink ref="B38" r:id="rId38" display="116" xr:uid="{C96244E5-C9D9-47F5-98A6-09BB5E967AF0}"/>
+    <hyperlink ref="B40" r:id="rId39" display="1160" xr:uid="{6AE3BA25-3008-4C65-939D-CEA76D759A4E}"/>
+    <hyperlink ref="B39" r:id="rId40" display="166" xr:uid="{67BD4097-E951-4F29-8975-34CBD108DEB9}"/>
+    <hyperlink ref="B41" r:id="rId41" display="9" xr:uid="{0D642614-CB47-47EA-B06C-915CC1C4E6DB}"/>
+    <hyperlink ref="B42" r:id="rId42" display="861" xr:uid="{9222F688-781A-4F13-AE63-E6F02217EA96}"/>
+    <hyperlink ref="B43" r:id="rId43" display="1103" xr:uid="{3838F11C-2737-4641-8CC5-2BAE5C1DD550}"/>
+    <hyperlink ref="B44" r:id="rId44" display="842" xr:uid="{61698887-E3D1-44B3-BAAA-8EC8E06F9468}"/>
+    <hyperlink ref="B48" r:id="rId45" display="62" xr:uid="{DD44F2BD-2533-4DFD-A358-B8FCBD208EF0}"/>
+    <hyperlink ref="B49" r:id="rId46" display="1351" xr:uid="{ADC9A789-CF90-4CF0-85C0-22696F692068}"/>
+    <hyperlink ref="B45" r:id="rId47" display="13" xr:uid="{7DF309DD-B418-4CAA-856E-624AB8282D03}"/>
+    <hyperlink ref="B46" r:id="rId48" display="14" xr:uid="{C8373ED0-7F72-41F4-AF93-5B4ED295C6BD}"/>
+    <hyperlink ref="B47" r:id="rId49" display="21" xr:uid="{AA3FA829-0A7D-400A-909A-1923B6B404E4}"/>
+    <hyperlink ref="B56" r:id="rId50" display="1652" xr:uid="{6FC4E774-99AB-4A40-ACE5-E799C2FC581D}"/>
+    <hyperlink ref="B55" r:id="rId51" display="1646" xr:uid="{7935178D-4E9A-4C88-8D1D-B35C8E3CE02A}"/>
+    <hyperlink ref="B57" r:id="rId52" display="1656" xr:uid="{0512EE63-506C-4330-8E6D-9442ABD952A8}"/>
+    <hyperlink ref="B53" r:id="rId53" display="35" xr:uid="{48129307-1B53-437A-A26F-79C49C238EBD}"/>
+    <hyperlink ref="B54" r:id="rId54" display="860" xr:uid="{040A1593-FAB5-4F9E-BF2A-205EAB90306B}"/>
+    <hyperlink ref="B51" r:id="rId55" display="27" xr:uid="{4E9B43FC-BA80-4B8D-BBB6-3A315F4BAE69}"/>
+    <hyperlink ref="B52" r:id="rId56" display="28" xr:uid="{29FFFC6E-CF75-4BCC-82FE-52185EEC8B68}"/>
+    <hyperlink ref="B50" r:id="rId57" display="26" xr:uid="{F2CFF3F5-7E3F-49DC-A01E-FD9CB01EFCF4}"/>
+    <hyperlink ref="B63" r:id="rId58" display="649" xr:uid="{3CBC37B8-B7D0-49B4-95EF-4C42FF031AF7}"/>
+    <hyperlink ref="B58" r:id="rId59" display="38" xr:uid="{1F88C0D2-E7B4-45F0-BBC9-1DBAA16AC524}"/>
+    <hyperlink ref="B59" r:id="rId60" display="53" xr:uid="{9456A323-B796-4C2B-832E-FB4399F43837}"/>
+    <hyperlink ref="B60" r:id="rId61" display="58" xr:uid="{BCEB2DCA-F34A-4ED5-9835-392E9672510D}"/>
+    <hyperlink ref="B61" r:id="rId62" display="66" xr:uid="{67D3C7B1-56DD-4D8F-97DF-6D30D6DF413F}"/>
+    <hyperlink ref="B62" r:id="rId63" display="67" xr:uid="{5ED683B2-7CF2-4BB5-B786-A647A9065A45}"/>
+    <hyperlink ref="B64" r:id="rId64" display="49" xr:uid="{94734011-27E0-4E90-9CC8-5F405D047E78}"/>
+    <hyperlink ref="B65" r:id="rId65" display="83" xr:uid="{B8306A8A-C734-42D1-AF68-941AC4F4A81B}"/>
+    <hyperlink ref="B66" r:id="rId66" display="136" xr:uid="{1F5932D6-9195-4637-A7C7-26C29B0E6673}"/>
+    <hyperlink ref="B67" r:id="rId67" display="167" xr:uid="{A8D24BDF-E17F-4C02-9C0D-9B56F3689D18}"/>
+    <hyperlink ref="B68" r:id="rId68" display="168" xr:uid="{E6737E06-BC3D-4005-914C-B79A9B165983}"/>
+    <hyperlink ref="B69" r:id="rId69" display="169" xr:uid="{803531DF-EFDB-4A26-AB23-6F5BE7EB6343}"/>
+    <hyperlink ref="B70" r:id="rId70" display="69" xr:uid="{9DA52450-0A47-4B54-B800-27241D397C16}"/>
+    <hyperlink ref="B81" r:id="rId71" display="738" xr:uid="{5361E1C9-1DFC-48E7-81AA-28D6644D31DA}"/>
+    <hyperlink ref="B71" r:id="rId72" display="88" xr:uid="{379305C3-A4A0-4DF0-8725-8DB8014C324A}"/>
+    <hyperlink ref="B72" r:id="rId73" display="100" xr:uid="{CD665945-FA55-4455-9F56-82DA7D1E0D7C}"/>
+    <hyperlink ref="B73" r:id="rId74" display="104" xr:uid="{BB7A9B39-D9F5-4F97-B576-5C1950DDB77B}"/>
+    <hyperlink ref="B74" r:id="rId75" display="107" xr:uid="{134DC09E-B28F-4B43-BBF3-A7F9BBC46D3F}"/>
+    <hyperlink ref="B75" r:id="rId76" display="108" xr:uid="{C65E2F75-7F27-4571-8608-F11BA4519767}"/>
+    <hyperlink ref="B76" r:id="rId77" display="110" xr:uid="{82F89C78-D237-4C82-9367-2A830C1C4693}"/>
+    <hyperlink ref="B77" r:id="rId78" display="111" xr:uid="{E26CC27F-58B2-4DBC-AB5A-E8F275AB5B5E}"/>
+    <hyperlink ref="B78" r:id="rId79" display="112" xr:uid="{88336EC1-E3DE-443E-8ED0-1EB80F9C16D6}"/>
+    <hyperlink ref="B79" r:id="rId80" display="118" xr:uid="{E88E833B-61E6-4D21-90EA-D94B300E6E23}"/>
+    <hyperlink ref="B80" r:id="rId81" display="119" xr:uid="{2BF131CD-6B69-443F-8259-B59259B1FD22}"/>
+    <hyperlink ref="B91" r:id="rId82" display="290" xr:uid="{BD382D8E-BC65-455A-87BF-1D05348D0938}"/>
+    <hyperlink ref="B82" r:id="rId83" display="121" xr:uid="{706F6893-915E-4270-A67C-5E13AF7920C4}"/>
+    <hyperlink ref="B83" r:id="rId84" display="122" xr:uid="{38289F4B-2841-4C82-AA95-75DF66C888FA}"/>
+    <hyperlink ref="B84" r:id="rId85" display="125" xr:uid="{0B278343-C805-4AF6-B6C1-85E0263CE29D}"/>
+    <hyperlink ref="B85" r:id="rId86" display="141" xr:uid="{BF48C5AC-BD49-4020-912E-7107A3561A2D}"/>
+    <hyperlink ref="B86" r:id="rId87" display="155" xr:uid="{210AA35D-F5B5-4AD5-8722-F79324B5CD4E}"/>
+    <hyperlink ref="B87" r:id="rId88" display="160" xr:uid="{489DB520-1520-4033-B02A-FAC3544C0A3A}"/>
+    <hyperlink ref="B88" r:id="rId89" display="171" xr:uid="{099FA626-4DA7-4117-B676-9C4BDED106DE}"/>
+    <hyperlink ref="B89" r:id="rId90" display="190" xr:uid="{91D03365-AFCC-4934-AA92-D22F40DC0A89}"/>
+    <hyperlink ref="B90" r:id="rId91" display="191" xr:uid="{41D9285D-762C-4EC7-8086-605599B15EFD}"/>
+    <hyperlink ref="B92" r:id="rId92" display="714" xr:uid="{8D4BDB0C-83A8-4CEB-98DB-1A049B2AF862}"/>
+    <hyperlink ref="B93" r:id="rId93" display="172" xr:uid="{B05146DB-92A1-40E8-B2D4-A396A901F862}"/>
+    <hyperlink ref="B95" r:id="rId94" display="389" xr:uid="{0F8C4AAE-5958-42AA-BD2F-73926ABB4D0F}"/>
+    <hyperlink ref="B94" r:id="rId95" display="198" xr:uid="{DCC7AC5C-20C4-47D6-BFAE-E3A8345076D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C1A98-2A45-4261-933D-545E3CABD3C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9CCEC2-2319-4BAE-8C0E-2771043EEEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="135">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,14 @@
   </si>
   <si>
     <t>二叉树，图，BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的锯齿形层序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，层次遍历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1008,11 +1016,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J96" sqref="J96"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2473,6 +2481,23 @@
       </c>
       <c r="J96" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="13">
+        <v>44187</v>
+      </c>
+      <c r="B97" s="10">
+        <v>103</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2603,8 +2628,9 @@
     <hyperlink ref="B93" r:id="rId93" display="172" xr:uid="{B05146DB-92A1-40E8-B2D4-A396A901F862}"/>
     <hyperlink ref="B95" r:id="rId94" display="389" xr:uid="{0F8C4AAE-5958-42AA-BD2F-73926ABB4D0F}"/>
     <hyperlink ref="B94" r:id="rId95" display="198" xr:uid="{DCC7AC5C-20C4-47D6-BFAE-E3A8345076D9}"/>
+    <hyperlink ref="B97" r:id="rId96" display="103" xr:uid="{D75A05B5-E3AC-45CD-A722-758360E45A76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9CCEC2-2319-4BAE-8C0E-2771043EEEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC22BFE-BEB7-470C-A7D2-C9087A3158B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="138">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,18 @@
   </si>
   <si>
     <t>二叉树，层次遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两数相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带进位加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数反转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,11 +1028,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2498,6 +2510,37 @@
       </c>
       <c r="E97" s="2" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="13">
+        <v>44187</v>
+      </c>
+      <c r="B98" s="10">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="13">
+        <v>44187</v>
+      </c>
+      <c r="B99" s="10">
+        <v>7</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2629,8 +2672,10 @@
     <hyperlink ref="B95" r:id="rId94" display="389" xr:uid="{0F8C4AAE-5958-42AA-BD2F-73926ABB4D0F}"/>
     <hyperlink ref="B94" r:id="rId95" display="198" xr:uid="{DCC7AC5C-20C4-47D6-BFAE-E3A8345076D9}"/>
     <hyperlink ref="B97" r:id="rId96" display="103" xr:uid="{D75A05B5-E3AC-45CD-A722-758360E45A76}"/>
+    <hyperlink ref="B98" r:id="rId97" display="2" xr:uid="{588CDC1E-4AEA-485A-AAF0-A589E9A72C59}"/>
+    <hyperlink ref="B99" r:id="rId98" display="7" xr:uid="{C39517B9-B02A-4D41-BE1F-0E184E3CC656}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId99"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC22BFE-BEB7-470C-A7D2-C9087A3158B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB79F1BB-C528-49C4-87A1-F82009040D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="144">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,30 @@
   </si>
   <si>
     <t>整数反转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bash-sed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串中的第一个唯一字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断二分图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着色法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -716,6 +740,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1028,11 +1053,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2541,6 +2566,57 @@
       </c>
       <c r="D99" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="13">
+        <v>44188</v>
+      </c>
+      <c r="B100" s="16">
+        <v>193</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="13">
+        <v>44188</v>
+      </c>
+      <c r="B101" s="16">
+        <v>387</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="13">
+        <v>44188</v>
+      </c>
+      <c r="B102" s="16">
+        <v>785</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2674,8 +2750,11 @@
     <hyperlink ref="B97" r:id="rId96" display="103" xr:uid="{D75A05B5-E3AC-45CD-A722-758360E45A76}"/>
     <hyperlink ref="B98" r:id="rId97" display="2" xr:uid="{588CDC1E-4AEA-485A-AAF0-A589E9A72C59}"/>
     <hyperlink ref="B99" r:id="rId98" display="7" xr:uid="{C39517B9-B02A-4D41-BE1F-0E184E3CC656}"/>
+    <hyperlink ref="B100" r:id="rId99" display="193" xr:uid="{25A7F013-6A55-4FD5-B02F-3C490AEC50EB}"/>
+    <hyperlink ref="B101" r:id="rId100" display="387" xr:uid="{09152787-B6A0-4059-AC4F-9756A287C77F}"/>
+    <hyperlink ref="B102" r:id="rId101" display="785" xr:uid="{D407DC8F-81C4-4C32-974B-F85788E7D41C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId99"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB79F1BB-C528-49C4-87A1-F82009040D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603B555B-1078-46C2-B31E-A7582FAB46BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="151">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,6 +585,34 @@
   </si>
   <si>
     <t>着色法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按序打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发糖果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无重复字符的最长子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长回文子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串转换整数 (atoi)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1053,11 +1081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2520,7 +2548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>44187</v>
       </c>
@@ -2537,7 +2565,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="13">
         <v>44187</v>
       </c>
@@ -2554,7 +2582,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>44187</v>
       </c>
@@ -2567,8 +2595,11 @@
       <c r="D99" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>44188</v>
       </c>
@@ -2585,7 +2616,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
         <v>44188</v>
       </c>
@@ -2602,7 +2633,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <v>44188</v>
       </c>
@@ -2617,6 +2648,88 @@
       </c>
       <c r="E102" s="2" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="13">
+        <v>44189</v>
+      </c>
+      <c r="B103" s="16">
+        <v>1114</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="13">
+        <v>44189</v>
+      </c>
+      <c r="B104" s="16">
+        <v>135</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="13">
+        <v>44189</v>
+      </c>
+      <c r="B105" s="16">
+        <v>3</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="13">
+        <v>44189</v>
+      </c>
+      <c r="B106" s="16">
+        <v>5</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="13">
+        <v>44189</v>
+      </c>
+      <c r="B107" s="16">
+        <v>8</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F107" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2753,8 +2866,13 @@
     <hyperlink ref="B100" r:id="rId99" display="193" xr:uid="{25A7F013-6A55-4FD5-B02F-3C490AEC50EB}"/>
     <hyperlink ref="B101" r:id="rId100" display="387" xr:uid="{09152787-B6A0-4059-AC4F-9756A287C77F}"/>
     <hyperlink ref="B102" r:id="rId101" display="785" xr:uid="{D407DC8F-81C4-4C32-974B-F85788E7D41C}"/>
+    <hyperlink ref="B103" r:id="rId102" display="1114" xr:uid="{02C59AEB-3ECC-433F-B2DB-9E3B49923EAA}"/>
+    <hyperlink ref="B104" r:id="rId103" display="135" xr:uid="{88A3497B-E107-4ADE-9841-8AFEB773882F}"/>
+    <hyperlink ref="B105" r:id="rId104" display="3" xr:uid="{FC99EB19-B73E-4106-9A16-43B76ED3A8AA}"/>
+    <hyperlink ref="B106" r:id="rId105" display="5" xr:uid="{CCA5EF68-D4A0-4A68-ADE7-08F81148F446}"/>
+    <hyperlink ref="B107" r:id="rId106" display="8" xr:uid="{6D8E1E49-7DE7-4B43-9A6A-440D00211008}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId107"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603B555B-1078-46C2-B31E-A7582FAB46BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CBE649-CB85-48E6-A3AE-07FE998F3CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="795" windowWidth="25815" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="153">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -613,6 +613,14 @@
   </si>
   <si>
     <t>字符串转换整数 (atoi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛水最多的容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,11 +1089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F101" sqref="F101"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2730,6 +2738,23 @@
       </c>
       <c r="F107" s="2">
         <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="13">
+        <v>44189</v>
+      </c>
+      <c r="B108" s="16">
+        <v>11</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2871,8 +2896,9 @@
     <hyperlink ref="B105" r:id="rId104" display="3" xr:uid="{FC99EB19-B73E-4106-9A16-43B76ED3A8AA}"/>
     <hyperlink ref="B106" r:id="rId105" display="5" xr:uid="{CCA5EF68-D4A0-4A68-ADE7-08F81148F446}"/>
     <hyperlink ref="B107" r:id="rId106" display="8" xr:uid="{6D8E1E49-7DE7-4B43-9A6A-440D00211008}"/>
+    <hyperlink ref="B108" r:id="rId107" display="11" xr:uid="{85A77396-4FBD-44E6-8450-011EA74E1D78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId107"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId108"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CBE649-CB85-48E6-A3AE-07FE998F3CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23DA9C0-73E4-4467-88D9-96807C14303D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="795" windowWidth="25815" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="161">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,6 +621,38 @@
   </si>
   <si>
     <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发饼干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数转罗马数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱状图中最大的矩形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大矩形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最接近的三数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码的字母组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,11 +1121,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2755,6 +2787,111 @@
       </c>
       <c r="E108" s="2" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="13">
+        <v>44190</v>
+      </c>
+      <c r="B109" s="16">
+        <v>455</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="13">
+        <v>44190</v>
+      </c>
+      <c r="B110" s="16">
+        <v>12</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="13">
+        <v>44191</v>
+      </c>
+      <c r="B111" s="16">
+        <v>84</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F111" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="13">
+        <v>44191</v>
+      </c>
+      <c r="B112" s="16">
+        <v>85</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F112" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="13">
+        <v>44191</v>
+      </c>
+      <c r="B113" s="16">
+        <v>16</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F113" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="13">
+        <v>44191</v>
+      </c>
+      <c r="B114" s="16">
+        <v>17</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2897,8 +3034,14 @@
     <hyperlink ref="B106" r:id="rId105" display="5" xr:uid="{CCA5EF68-D4A0-4A68-ADE7-08F81148F446}"/>
     <hyperlink ref="B107" r:id="rId106" display="8" xr:uid="{6D8E1E49-7DE7-4B43-9A6A-440D00211008}"/>
     <hyperlink ref="B108" r:id="rId107" display="11" xr:uid="{85A77396-4FBD-44E6-8450-011EA74E1D78}"/>
+    <hyperlink ref="B109" r:id="rId108" display="455" xr:uid="{06784E5C-41B8-449D-956E-ACB227876593}"/>
+    <hyperlink ref="B110" r:id="rId109" display="12" xr:uid="{E44A089B-8AFD-4D63-90E9-FC841C1FAD9D}"/>
+    <hyperlink ref="B111" r:id="rId110" display="84" xr:uid="{8C9ABD0E-F809-47B9-97A4-B5F78BFBE8DA}"/>
+    <hyperlink ref="B112" r:id="rId111" display="85" xr:uid="{B94D0584-54C0-4CA1-9D5F-1736AE5B2CDA}"/>
+    <hyperlink ref="B113" r:id="rId112" display="16" xr:uid="{F9242DA9-C7D7-4AA5-8712-04320F1D3924}"/>
+    <hyperlink ref="B114" r:id="rId113" display="17" xr:uid="{00071614-A6CA-4A59-8E26-B5DD3C42B43F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId108"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId114"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23DA9C0-73E4-4467-88D9-96807C14303D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BD08F7-CDE4-4AD0-B5F6-3D4BDB998F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="167">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,6 +653,30 @@
   </si>
   <si>
     <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同构字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>括号生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19. 删除链表的倒数第N个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快慢指针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,11 +1145,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2892,6 +2916,74 @@
       </c>
       <c r="E114" s="2" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="13">
+        <v>44193</v>
+      </c>
+      <c r="B115" s="16">
+        <v>205</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="13">
+        <v>44193</v>
+      </c>
+      <c r="B116" s="16">
+        <v>22</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="13">
+        <v>44193</v>
+      </c>
+      <c r="B117" s="16">
+        <v>18</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F117" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="13">
+        <v>44193</v>
+      </c>
+      <c r="B118" s="16">
+        <v>19</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3040,8 +3132,12 @@
     <hyperlink ref="B112" r:id="rId111" display="85" xr:uid="{B94D0584-54C0-4CA1-9D5F-1736AE5B2CDA}"/>
     <hyperlink ref="B113" r:id="rId112" display="16" xr:uid="{F9242DA9-C7D7-4AA5-8712-04320F1D3924}"/>
     <hyperlink ref="B114" r:id="rId113" display="17" xr:uid="{00071614-A6CA-4A59-8E26-B5DD3C42B43F}"/>
+    <hyperlink ref="B115" r:id="rId114" display="205" xr:uid="{F1A20A47-494E-4F2B-8E60-50F2176709B1}"/>
+    <hyperlink ref="B116" r:id="rId115" display="22" xr:uid="{A8E476DB-2FB8-400F-A2C0-19B6AACAEE79}"/>
+    <hyperlink ref="B117" r:id="rId116" display="18" xr:uid="{B4C0A006-5957-4A16-A820-5960AEEF2116}"/>
+    <hyperlink ref="B118" r:id="rId117" display="19" xr:uid="{01ACCBFE-4F97-4F44-82D9-6178B036C458}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId114"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId118"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BD08F7-CDE4-4AD0-B5F6-3D4BDB998F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192D0AFE-54D5-449C-B927-66123CB124BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="174">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,6 +677,34 @@
   </si>
   <si>
     <t>快慢指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖股票的最佳时机 IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按要求补齐数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两两交换链表中的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两数相除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个排列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,11 +1173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2984,6 +3012,91 @@
       </c>
       <c r="E118" s="2" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="13">
+        <v>44194</v>
+      </c>
+      <c r="B119" s="16">
+        <v>188</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="13">
+        <v>44194</v>
+      </c>
+      <c r="B120" s="16">
+        <v>330</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="13">
+        <v>44194</v>
+      </c>
+      <c r="B121" s="16">
+        <v>24</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="13">
+        <v>44194</v>
+      </c>
+      <c r="B122" s="16">
+        <v>29</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="13">
+        <v>44194</v>
+      </c>
+      <c r="B123" s="16">
+        <v>31</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3136,8 +3249,13 @@
     <hyperlink ref="B116" r:id="rId115" display="22" xr:uid="{A8E476DB-2FB8-400F-A2C0-19B6AACAEE79}"/>
     <hyperlink ref="B117" r:id="rId116" display="18" xr:uid="{B4C0A006-5957-4A16-A820-5960AEEF2116}"/>
     <hyperlink ref="B118" r:id="rId117" display="19" xr:uid="{01ACCBFE-4F97-4F44-82D9-6178B036C458}"/>
+    <hyperlink ref="B119" r:id="rId118" display="188" xr:uid="{16347B81-62F8-48C2-80FD-312E51F6825F}"/>
+    <hyperlink ref="B120" r:id="rId119" display="330" xr:uid="{A39F9ABE-10AE-4D72-999A-BDC49146A65A}"/>
+    <hyperlink ref="B121" r:id="rId120" display="24" xr:uid="{18F15035-F470-4E7E-B197-B748EDF50FD2}"/>
+    <hyperlink ref="B122" r:id="rId121" display="29" xr:uid="{6022BC02-5931-49E5-895E-9399CCA097EC}"/>
+    <hyperlink ref="B123" r:id="rId122" display="31" xr:uid="{877044DA-FE2B-41EF-8FE4-0519097DBA9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId118"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192D0AFE-54D5-449C-B927-66123CB124BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82F4900-AFAF-4F78-9F5E-685EEA4CC128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="178">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -705,6 +705,22 @@
   </si>
   <si>
     <t>下一个排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索旋转排序数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在排序数组中查找元素的第一个和最后一个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的数独</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,18 +1189,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E123" sqref="E123"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" style="2" bestFit="1" customWidth="1"/>
@@ -3097,6 +3113,54 @@
       </c>
       <c r="E123" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="13">
+        <v>44194</v>
+      </c>
+      <c r="B124" s="16">
+        <v>33</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="13">
+        <v>44194</v>
+      </c>
+      <c r="B125" s="16">
+        <v>34</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="13">
+        <v>44194</v>
+      </c>
+      <c r="B126" s="16">
+        <v>36</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3254,8 +3318,11 @@
     <hyperlink ref="B121" r:id="rId120" display="24" xr:uid="{18F15035-F470-4E7E-B197-B748EDF50FD2}"/>
     <hyperlink ref="B122" r:id="rId121" display="29" xr:uid="{6022BC02-5931-49E5-895E-9399CCA097EC}"/>
     <hyperlink ref="B123" r:id="rId122" display="31" xr:uid="{877044DA-FE2B-41EF-8FE4-0519097DBA9C}"/>
+    <hyperlink ref="B124" r:id="rId123" display="33" xr:uid="{A445ECBC-88ED-415B-B5C9-8F4B5EF51D57}"/>
+    <hyperlink ref="B125" r:id="rId124" display="34" xr:uid="{4BBE3AFB-AFB7-487C-8C23-7451A451CAE1}"/>
+    <hyperlink ref="B126" r:id="rId125" display="36" xr:uid="{2C42F5C1-8C6F-47C7-B38F-3151538C1F12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId126"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82F4900-AFAF-4F78-9F5E-685EEA4CC128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D17A1D2-4CE5-41DB-B1B2-E3BD7DCD09F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="190">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,6 +721,54 @@
   </si>
   <si>
     <t>有效的数独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一块石头的重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22，17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索二维矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵置零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小路径和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同路径 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,11 +1237,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3161,6 +3209,173 @@
       </c>
       <c r="D126" s="2" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="13">
+        <v>44195</v>
+      </c>
+      <c r="B127" s="16">
+        <v>1046</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="13">
+        <v>44195</v>
+      </c>
+      <c r="B128" s="16">
+        <v>78</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="13">
+        <v>44195</v>
+      </c>
+      <c r="B129" s="16">
+        <v>77</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F129" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="13">
+        <v>44195</v>
+      </c>
+      <c r="B130" s="16">
+        <v>75</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="13">
+        <v>44195</v>
+      </c>
+      <c r="B131" s="16">
+        <v>74</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="13">
+        <v>44195</v>
+      </c>
+      <c r="B132" s="16">
+        <v>73</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="13">
+        <v>44195</v>
+      </c>
+      <c r="B133" s="16">
+        <v>71</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="13">
+        <v>44195</v>
+      </c>
+      <c r="B134" s="16">
+        <v>64</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="13">
+        <v>44195</v>
+      </c>
+      <c r="B135" s="16">
+        <v>63</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="13">
+        <v>44195</v>
+      </c>
+      <c r="B136" s="16">
+        <v>61</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3321,8 +3536,18 @@
     <hyperlink ref="B124" r:id="rId123" display="33" xr:uid="{A445ECBC-88ED-415B-B5C9-8F4B5EF51D57}"/>
     <hyperlink ref="B125" r:id="rId124" display="34" xr:uid="{4BBE3AFB-AFB7-487C-8C23-7451A451CAE1}"/>
     <hyperlink ref="B126" r:id="rId125" display="36" xr:uid="{2C42F5C1-8C6F-47C7-B38F-3151538C1F12}"/>
+    <hyperlink ref="B127" r:id="rId126" display="1046" xr:uid="{D7A7DCD6-140D-4867-9237-6331385F9DAE}"/>
+    <hyperlink ref="B128" r:id="rId127" display="78" xr:uid="{03B62F73-366A-415F-988E-C2499E583C69}"/>
+    <hyperlink ref="B129" r:id="rId128" display="77" xr:uid="{F036B4BC-64F8-430B-9B3B-5D054131CF00}"/>
+    <hyperlink ref="B130" r:id="rId129" display="75" xr:uid="{B8BD0A3B-6FF5-44A4-8C72-4F81AA99C954}"/>
+    <hyperlink ref="B131" r:id="rId130" display="74" xr:uid="{C83B20C4-2CC9-4931-A81D-A48B8DB73C78}"/>
+    <hyperlink ref="B132" r:id="rId131" display="73" xr:uid="{A8E9B88B-EFBB-4E71-BED0-A87030F09BEE}"/>
+    <hyperlink ref="B133" r:id="rId132" display="71" xr:uid="{F9587219-FED4-43E2-95AD-37B5FF388FF9}"/>
+    <hyperlink ref="B134" r:id="rId133" display="64" xr:uid="{827E50E9-5130-4788-A6B3-264D90F732EE}"/>
+    <hyperlink ref="B135" r:id="rId134" display="63" xr:uid="{FE80E53B-C83B-4418-B212-8309F7825E35}"/>
+    <hyperlink ref="B136" r:id="rId135" display="61" xr:uid="{4E0FE2F1-D545-475A-802C-4684EDA60567}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId126"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId136"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D17A1D2-4CE5-41DB-B1B2-E3BD7DCD09F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9447ABF3-712A-461C-8515-2991FA08AEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="204">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,6 +769,62 @@
   </si>
   <si>
     <t>旋转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斐波那契数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较大分组的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除链表元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读数质数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合总和-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串相乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学，乘法进位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全排列-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几何</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1237,11 +1293,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E136" sqref="E136"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3376,6 +3432,179 @@
       </c>
       <c r="E136" s="2" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="13">
+        <v>44200</v>
+      </c>
+      <c r="B137" s="16">
+        <v>509</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="13">
+        <v>43835</v>
+      </c>
+      <c r="B138" s="16">
+        <v>830</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="13">
+        <v>43836</v>
+      </c>
+      <c r="B139" s="16">
+        <v>203</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="13">
+        <v>43836</v>
+      </c>
+      <c r="B140" s="16">
+        <v>204</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="13">
+        <v>43836</v>
+      </c>
+      <c r="B141" s="16">
+        <v>39</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="13">
+        <v>43836</v>
+      </c>
+      <c r="B142" s="16">
+        <v>40</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F142" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="13">
+        <v>43836</v>
+      </c>
+      <c r="B143" s="16">
+        <v>43</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="13">
+        <v>43836</v>
+      </c>
+      <c r="B144" s="16">
+        <v>46</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="13">
+        <v>43836</v>
+      </c>
+      <c r="B145" s="16">
+        <v>47</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="13">
+        <v>43836</v>
+      </c>
+      <c r="B146" s="16">
+        <v>48</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3546,8 +3775,18 @@
     <hyperlink ref="B134" r:id="rId133" display="64" xr:uid="{827E50E9-5130-4788-A6B3-264D90F732EE}"/>
     <hyperlink ref="B135" r:id="rId134" display="63" xr:uid="{FE80E53B-C83B-4418-B212-8309F7825E35}"/>
     <hyperlink ref="B136" r:id="rId135" display="61" xr:uid="{4E0FE2F1-D545-475A-802C-4684EDA60567}"/>
+    <hyperlink ref="B137" r:id="rId136" display="509" xr:uid="{A3DBE98B-4B5B-4A9D-9FC8-E30A0CD3058D}"/>
+    <hyperlink ref="B138" r:id="rId137" display="830" xr:uid="{D138C1F5-6CAD-4516-A9A0-B707A8E52682}"/>
+    <hyperlink ref="B139" r:id="rId138" display="203" xr:uid="{35F65149-36E3-4AF1-9D34-3D9DD0980D56}"/>
+    <hyperlink ref="B140" r:id="rId139" display="204" xr:uid="{9BA482BF-3F80-43E0-AD80-70EC9C6BC56D}"/>
+    <hyperlink ref="B141" r:id="rId140" display="39" xr:uid="{86A96D19-9BA6-439F-BD24-749E31C6306B}"/>
+    <hyperlink ref="B142" r:id="rId141" display="40" xr:uid="{7010E0F3-3628-4D31-B2F0-0409AB89F043}"/>
+    <hyperlink ref="B143" r:id="rId142" display="43" xr:uid="{7996BF78-92B4-4BF3-B57B-0230A4CEBA4A}"/>
+    <hyperlink ref="B144" r:id="rId143" display="46" xr:uid="{C00C67ED-5ACB-4AE8-8CAC-BD348A39300E}"/>
+    <hyperlink ref="B145" r:id="rId144" display="47" xr:uid="{36A26573-ABF0-4315-B158-A02AE82BD1B0}"/>
+    <hyperlink ref="B146" r:id="rId145" display="48" xr:uid="{ACDD2682-D5F8-4617-B818-141A97672B1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId136"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId146"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9447ABF3-712A-461C-8515-2991FA08AEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43331D59-0BFF-4F9D-A494-146745FB2330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="219">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -825,6 +825,66 @@
   </si>
   <si>
     <t>几何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除法求值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图，并查集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跃跳游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心，跳格子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋矩阵-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.删除排序数组中的重复项-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组，双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.删除排序链表中的重复元素-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,11 +1353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3605,6 +3665,170 @@
       </c>
       <c r="E146" s="2" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="13">
+        <v>43836</v>
+      </c>
+      <c r="B147" s="16">
+        <v>399</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="13">
+        <v>43837</v>
+      </c>
+      <c r="B148" s="16">
+        <v>50</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="13">
+        <v>43837</v>
+      </c>
+      <c r="B149" s="16">
+        <v>54</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="13">
+        <v>43837</v>
+      </c>
+      <c r="B150" s="16">
+        <v>55</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="13">
+        <v>43837</v>
+      </c>
+      <c r="B151" s="16">
+        <v>56</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="13">
+        <v>43837</v>
+      </c>
+      <c r="B152" s="16">
+        <v>59</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="13">
+        <v>43837</v>
+      </c>
+      <c r="B153" s="16">
+        <v>79</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="13">
+        <v>43837</v>
+      </c>
+      <c r="B154" s="16">
+        <v>80</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="13">
+        <v>43837</v>
+      </c>
+      <c r="B155" s="16">
+        <v>82</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="13">
+        <v>43837</v>
+      </c>
+      <c r="B156" s="16">
+        <v>206</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3785,8 +4009,18 @@
     <hyperlink ref="B144" r:id="rId143" display="46" xr:uid="{C00C67ED-5ACB-4AE8-8CAC-BD348A39300E}"/>
     <hyperlink ref="B145" r:id="rId144" display="47" xr:uid="{36A26573-ABF0-4315-B158-A02AE82BD1B0}"/>
     <hyperlink ref="B146" r:id="rId145" display="48" xr:uid="{ACDD2682-D5F8-4617-B818-141A97672B1F}"/>
+    <hyperlink ref="B147" r:id="rId146" display="399" xr:uid="{B46AA34E-8B6F-45B7-A61A-72EBCD18C329}"/>
+    <hyperlink ref="B148" r:id="rId147" display="50" xr:uid="{EFADC41F-227D-4053-BB78-FFA5EE301CF7}"/>
+    <hyperlink ref="B149" r:id="rId148" display="54" xr:uid="{1192D5E0-6AC5-4A89-88F3-F9AB05EF35CA}"/>
+    <hyperlink ref="B150" r:id="rId149" display="55" xr:uid="{D3DF9628-E23D-4235-A48E-03C3B7BC7A74}"/>
+    <hyperlink ref="B151" r:id="rId150" display="56" xr:uid="{4BA70837-F527-48AA-A2E9-6FE73379AB42}"/>
+    <hyperlink ref="B152" r:id="rId151" display="59" xr:uid="{33A1190A-5E78-411E-B7C7-E2739914727A}"/>
+    <hyperlink ref="B153" r:id="rId152" display="79" xr:uid="{0E7C6BFE-EE23-4EC0-AF65-246242BE9DE0}"/>
+    <hyperlink ref="B154" r:id="rId153" display="80" xr:uid="{66211387-34A5-44B8-AF50-BA3CCC57DED1}"/>
+    <hyperlink ref="B155" r:id="rId154" display="82" xr:uid="{184C83C5-5B24-44D2-A5F9-A8B8523AE505}"/>
+    <hyperlink ref="B156" r:id="rId155" display="206" xr:uid="{4D99C2C6-6E9E-4139-9729-C0BBB2F8836D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId146"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId156"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43331D59-0BFF-4F9D-A494-146745FB2330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32D4873-C275-447C-808B-E96A59656AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="223">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -885,6 +885,22 @@
   </si>
   <si>
     <t>反转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名：58721</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索旋转排序数组-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分隔链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +908,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,6 +996,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1023,7 +1046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1041,6 +1064,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1353,11 +1377,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C157" sqref="C157"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3633,7 +3657,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="13">
         <v>43836</v>
       </c>
@@ -3650,7 +3674,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="13">
         <v>43836</v>
       </c>
@@ -3667,7 +3691,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="13">
         <v>43836</v>
       </c>
@@ -3684,7 +3708,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="13">
         <v>43837</v>
       </c>
@@ -3701,7 +3725,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="13">
         <v>43837</v>
       </c>
@@ -3715,7 +3739,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="13">
         <v>43837</v>
       </c>
@@ -3732,7 +3756,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
         <v>43837</v>
       </c>
@@ -3749,7 +3773,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="13">
         <v>43837</v>
       </c>
@@ -3763,7 +3787,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="13">
         <v>43837</v>
       </c>
@@ -3780,7 +3804,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="13">
         <v>43837</v>
       </c>
@@ -3797,7 +3821,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="13">
         <v>43837</v>
       </c>
@@ -3814,7 +3838,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="13">
         <v>43837</v>
       </c>
@@ -3829,6 +3853,57 @@
       </c>
       <c r="E156" s="2" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A157" s="13">
+        <v>43838</v>
+      </c>
+      <c r="B157" s="16">
+        <v>189</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N157" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158" s="13">
+        <v>43838</v>
+      </c>
+      <c r="B158" s="16">
+        <v>81</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A159" s="13">
+        <v>43838</v>
+      </c>
+      <c r="B159" s="16">
+        <v>86</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4019,8 +4094,11 @@
     <hyperlink ref="B154" r:id="rId153" display="80" xr:uid="{66211387-34A5-44B8-AF50-BA3CCC57DED1}"/>
     <hyperlink ref="B155" r:id="rId154" display="82" xr:uid="{184C83C5-5B24-44D2-A5F9-A8B8523AE505}"/>
     <hyperlink ref="B156" r:id="rId155" display="206" xr:uid="{4D99C2C6-6E9E-4139-9729-C0BBB2F8836D}"/>
+    <hyperlink ref="B157" r:id="rId156" display="189" xr:uid="{EB4D2CE8-2E35-409C-94E1-F2474A9DF244}"/>
+    <hyperlink ref="B158" r:id="rId157" display="81" xr:uid="{D4551191-9DD9-426C-96DE-0AF7B0A1F3DE}"/>
+    <hyperlink ref="B159" r:id="rId158" display="86" xr:uid="{FFA8F1E5-C37E-4B9E-81A7-597D44D8022F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId156"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId159"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32D4873-C275-447C-808B-E96A59656AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5975F65-D278-4B02-95D9-42742767609A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="232">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -901,6 +901,42 @@
   </si>
   <si>
     <t>分隔链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名：57353</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖股票的最佳时机-iii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格雷编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学，回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子集-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯，迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解码方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划，回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转链表-ii</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,11 +1413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N159"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E159" sqref="E159"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3904,6 +3940,94 @@
       </c>
       <c r="D159" s="2" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160" s="13">
+        <v>43839</v>
+      </c>
+      <c r="B160" s="16">
+        <v>123</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N160" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="13">
+        <v>43839</v>
+      </c>
+      <c r="B161" s="16">
+        <v>89</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="13">
+        <v>43839</v>
+      </c>
+      <c r="B162" s="16">
+        <v>90</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="13">
+        <v>43839</v>
+      </c>
+      <c r="B163" s="16">
+        <v>91</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="13">
+        <v>43839</v>
+      </c>
+      <c r="B164" s="16">
+        <v>92</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4097,8 +4221,13 @@
     <hyperlink ref="B157" r:id="rId156" display="189" xr:uid="{EB4D2CE8-2E35-409C-94E1-F2474A9DF244}"/>
     <hyperlink ref="B158" r:id="rId157" display="81" xr:uid="{D4551191-9DD9-426C-96DE-0AF7B0A1F3DE}"/>
     <hyperlink ref="B159" r:id="rId158" display="86" xr:uid="{FFA8F1E5-C37E-4B9E-81A7-597D44D8022F}"/>
+    <hyperlink ref="B160" r:id="rId159" display="123" xr:uid="{3CBE2B5D-CEED-46C6-9A15-51E5D123531A}"/>
+    <hyperlink ref="B161" r:id="rId160" display="89" xr:uid="{A4B02117-487A-400D-98A7-208AC184F318}"/>
+    <hyperlink ref="B162" r:id="rId161" display="90" xr:uid="{D9ADF16D-80D0-402A-BE2B-12FA2ECC33BD}"/>
+    <hyperlink ref="B163" r:id="rId162" display="91" xr:uid="{E3959869-B1B2-4C00-BB50-6F0B58BC00BF}"/>
+    <hyperlink ref="B164" r:id="rId163" display="92" xr:uid="{384EC2C9-DC93-4B1C-80DE-8E35F784D200}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId159"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId164"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5975F65-D278-4B02-95D9-42742767609A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE17E06-4D2A-48EA-A7FA-4FCCC9EB4F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="239">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -937,6 +937,46 @@
   </si>
   <si>
     <t>反转链表-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解码异或后的数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>223</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周赛第1题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名：54223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1202.交换字符串中的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1413,11 +1453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N164"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E164" sqref="E164"/>
+      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3962,7 +4002,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="13">
         <v>43839</v>
       </c>
@@ -3979,7 +4019,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="13">
         <v>43839</v>
       </c>
@@ -3996,7 +4036,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="13">
         <v>43839</v>
       </c>
@@ -4013,7 +4053,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="13">
         <v>43839</v>
       </c>
@@ -4028,6 +4068,63 @@
       </c>
       <c r="E164" s="2" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A165" s="13">
+        <v>43840</v>
+      </c>
+      <c r="B165" s="16">
+        <v>228</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A166" s="13">
+        <v>43840</v>
+      </c>
+      <c r="B166" s="16">
+        <v>5649</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A167" s="13">
+        <v>43841</v>
+      </c>
+      <c r="B167" s="16">
+        <v>1202</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N167" s="17" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4226,8 +4323,11 @@
     <hyperlink ref="B162" r:id="rId161" display="90" xr:uid="{D9ADF16D-80D0-402A-BE2B-12FA2ECC33BD}"/>
     <hyperlink ref="B163" r:id="rId162" display="91" xr:uid="{E3959869-B1B2-4C00-BB50-6F0B58BC00BF}"/>
     <hyperlink ref="B164" r:id="rId163" display="92" xr:uid="{384EC2C9-DC93-4B1C-80DE-8E35F784D200}"/>
+    <hyperlink ref="B165" r:id="rId164" display="228" xr:uid="{13194A86-E4E6-44B9-BDEB-8E816BDC0EBE}"/>
+    <hyperlink ref="B166" r:id="rId165" display="5649" xr:uid="{B46ACEF1-6A2B-48AF-8E26-13E37FA48088}"/>
+    <hyperlink ref="B167" r:id="rId166" display="1202" xr:uid="{15A0C839-62F4-443F-8731-0BA47701F69D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId164"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId167"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE17E06-4D2A-48EA-A7FA-4FCCC9EB4F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469AFA11-CA90-453A-805F-79EF98FB9364}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="270">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -979,12 +979,154 @@
     <t>并查集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>53910</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓扑排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复原IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的中序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归&amp;迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞地的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的层序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名：50826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种花问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗，双端队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105.从前序与中序遍历序列构造二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106.从中序与后序遍历序列构造二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95.不同的二叉搜索树-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序链表转换二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，快慢指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径总和-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树展开为链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充每个节点的下一个右侧节点指针-ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求根到叶子节点数字之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被包围的区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS，BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1221,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1122,7 +1271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1141,6 +1290,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1453,11 +1603,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1468,7 +1618,7 @@
     <col min="4" max="4" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" bestFit="1" customWidth="1"/>
@@ -4125,6 +4275,338 @@
       </c>
       <c r="N167" s="17" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168" s="13">
+        <v>43842</v>
+      </c>
+      <c r="B168" s="16">
+        <v>1203</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="N168" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169" s="13">
+        <v>43842</v>
+      </c>
+      <c r="B169" s="16">
+        <v>93</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170" s="13">
+        <v>43842</v>
+      </c>
+      <c r="B170" s="16">
+        <v>94</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A171" s="13">
+        <v>43842</v>
+      </c>
+      <c r="B171" s="16">
+        <v>1020</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A172" s="13">
+        <v>43842</v>
+      </c>
+      <c r="B172" s="16">
+        <v>102</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173" s="13">
+        <v>43842</v>
+      </c>
+      <c r="B173" s="16">
+        <v>98</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A174" s="13">
+        <v>43842</v>
+      </c>
+      <c r="B174" s="16">
+        <v>96</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A175" s="13">
+        <v>43843</v>
+      </c>
+      <c r="B175" s="16">
+        <v>605</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N175" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A176" s="13">
+        <v>43843</v>
+      </c>
+      <c r="B176" s="16">
+        <v>239</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="13">
+        <v>43843</v>
+      </c>
+      <c r="B177" s="16">
+        <v>105</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="13">
+        <v>43843</v>
+      </c>
+      <c r="B178" s="16">
+        <v>106</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="13">
+        <v>43843</v>
+      </c>
+      <c r="B179" s="16">
+        <v>95</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="13">
+        <v>43843</v>
+      </c>
+      <c r="B180" s="16">
+        <v>684</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="13">
+        <v>43843</v>
+      </c>
+      <c r="B181" s="16">
+        <v>109</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="13">
+        <v>43843</v>
+      </c>
+      <c r="B182" s="16">
+        <v>113</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="13">
+        <v>43843</v>
+      </c>
+      <c r="B183" s="16">
+        <v>114</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="13">
+        <v>43843</v>
+      </c>
+      <c r="B184" s="16">
+        <v>117</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="13">
+        <v>43843</v>
+      </c>
+      <c r="B185" s="16">
+        <v>129</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="13">
+        <v>43843</v>
+      </c>
+      <c r="B186" s="16">
+        <v>130</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4326,8 +4808,27 @@
     <hyperlink ref="B165" r:id="rId164" display="228" xr:uid="{13194A86-E4E6-44B9-BDEB-8E816BDC0EBE}"/>
     <hyperlink ref="B166" r:id="rId165" display="5649" xr:uid="{B46ACEF1-6A2B-48AF-8E26-13E37FA48088}"/>
     <hyperlink ref="B167" r:id="rId166" display="1202" xr:uid="{15A0C839-62F4-443F-8731-0BA47701F69D}"/>
+    <hyperlink ref="B168" r:id="rId167" display="1203" xr:uid="{2E9A1AC5-44CB-4669-83F3-00585431FCC9}"/>
+    <hyperlink ref="B169" r:id="rId168" display="93" xr:uid="{DFC03419-67BC-4327-8B00-31F2367B7B0C}"/>
+    <hyperlink ref="B170" r:id="rId169" display="94" xr:uid="{6C7629DA-88D4-4424-AD9A-D33EAAE23590}"/>
+    <hyperlink ref="B171" r:id="rId170" display="1020" xr:uid="{46C7EBFD-7716-4B67-AF8A-CB0472EF8FD1}"/>
+    <hyperlink ref="B172" r:id="rId171" display="102" xr:uid="{333C9056-42F0-4E74-88C5-0555F23183F8}"/>
+    <hyperlink ref="B173" r:id="rId172" display="98" xr:uid="{F478B65D-A396-4D05-A85F-7C3D6D33FF16}"/>
+    <hyperlink ref="B174" r:id="rId173" display="96" xr:uid="{39AD4089-7603-450A-85F9-88C426B713A8}"/>
+    <hyperlink ref="B175" r:id="rId174" display="605" xr:uid="{040A96F2-78F0-467E-BBCE-6F6CB449C9EE}"/>
+    <hyperlink ref="B176" r:id="rId175" display="239" xr:uid="{38CDD180-75BD-4FCA-BC17-8EDE85AE0129}"/>
+    <hyperlink ref="B177" r:id="rId176" display="105" xr:uid="{F811EB7F-A802-4F80-A59B-55EB0ACB2535}"/>
+    <hyperlink ref="B178" r:id="rId177" display="106" xr:uid="{955597F7-4C51-486D-A8D1-40D77C3B5B47}"/>
+    <hyperlink ref="B179" r:id="rId178" display="95" xr:uid="{B5FE9346-5A41-4170-BA4D-94AA2823A030}"/>
+    <hyperlink ref="B180" r:id="rId179" display="684" xr:uid="{ED0E4755-F97C-4E79-B45E-62F6648FF424}"/>
+    <hyperlink ref="B181" r:id="rId180" display="109" xr:uid="{149B5A46-9BFF-4781-B491-27A05ECCFF9E}"/>
+    <hyperlink ref="B182" r:id="rId181" display="113" xr:uid="{6B4FB37D-A18A-4F63-A154-CB7D2D499000}"/>
+    <hyperlink ref="B183" r:id="rId182" display="114" xr:uid="{35DE8468-EED4-4689-A621-30EC1294CDA5}"/>
+    <hyperlink ref="B184" r:id="rId183" display="117" xr:uid="{C0272655-E049-4043-A509-1901BB077CBA}"/>
+    <hyperlink ref="B185" r:id="rId184" display="129" xr:uid="{5EFC23CF-4120-4376-B98E-1AB1831EF169}"/>
+    <hyperlink ref="B186" r:id="rId185" display="130" xr:uid="{B982A1F0-1FF0-47E4-85A6-C455358F2C9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId167"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId186"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469AFA11-CA90-453A-805F-79EF98FB9364}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83157AE-F0B9-4BD6-97B4-4E2474D56662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="284">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1119,6 +1119,80 @@
   </si>
   <si>
     <t>DFS，BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名：45979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可被 5 整除的二进制前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割回文串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>44947</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除最多的同行或同列石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找两个正序数组的中位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名：43667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打砖块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制带随机指针的链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1603,11 +1677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N186"/>
+  <dimension ref="A1:N195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E186" sqref="E186"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4439,7 +4513,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="13">
         <v>43843</v>
       </c>
@@ -4456,7 +4530,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="13">
         <v>43843</v>
       </c>
@@ -4473,7 +4547,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="13">
         <v>43843</v>
       </c>
@@ -4490,7 +4564,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="13">
         <v>43843</v>
       </c>
@@ -4507,7 +4581,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="13">
         <v>43843</v>
       </c>
@@ -4524,7 +4598,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="13">
         <v>43843</v>
       </c>
@@ -4541,7 +4615,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="13">
         <v>43843</v>
       </c>
@@ -4558,7 +4632,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="13">
         <v>43843</v>
       </c>
@@ -4575,7 +4649,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="13">
         <v>43843</v>
       </c>
@@ -4592,7 +4666,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="13">
         <v>43843</v>
       </c>
@@ -4607,6 +4681,165 @@
       </c>
       <c r="E186" s="2" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A187" s="13">
+        <v>43844</v>
+      </c>
+      <c r="B187" s="16">
+        <v>1018</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N187" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A188" s="13">
+        <v>43844</v>
+      </c>
+      <c r="B188" s="16">
+        <v>131</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A189" s="13">
+        <v>43845</v>
+      </c>
+      <c r="B189" s="16">
+        <v>947</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N189" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A190" s="13">
+        <v>43845</v>
+      </c>
+      <c r="B190" s="16">
+        <v>4</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A191" s="13">
+        <v>43845</v>
+      </c>
+      <c r="B191" s="16">
+        <v>133</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A192" s="13">
+        <v>43845</v>
+      </c>
+      <c r="B192" s="16">
+        <v>134</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A193" s="13">
+        <v>43846</v>
+      </c>
+      <c r="B193" s="16">
+        <v>803</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N193" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A194" s="13">
+        <v>43846</v>
+      </c>
+      <c r="B194" s="16">
+        <v>138</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A195" s="13">
+        <v>43846</v>
+      </c>
+      <c r="B195" s="16">
+        <v>10</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4827,8 +5060,17 @@
     <hyperlink ref="B184" r:id="rId183" display="117" xr:uid="{C0272655-E049-4043-A509-1901BB077CBA}"/>
     <hyperlink ref="B185" r:id="rId184" display="129" xr:uid="{5EFC23CF-4120-4376-B98E-1AB1831EF169}"/>
     <hyperlink ref="B186" r:id="rId185" display="130" xr:uid="{B982A1F0-1FF0-47E4-85A6-C455358F2C9A}"/>
+    <hyperlink ref="B187" r:id="rId186" display="1018" xr:uid="{E9F70FAE-8244-4DBA-B111-2C9D80A7D48E}"/>
+    <hyperlink ref="B188" r:id="rId187" display="131" xr:uid="{74346D83-FEAB-45C9-87C5-347FB1071F8D}"/>
+    <hyperlink ref="B189" r:id="rId188" display="947" xr:uid="{4251AB27-E805-452C-B22E-16EFA1364B0C}"/>
+    <hyperlink ref="B190" r:id="rId189" display="4" xr:uid="{50C7713E-4364-48B6-ACCC-FF7633D8FC84}"/>
+    <hyperlink ref="B191" r:id="rId190" display="133" xr:uid="{B5D86680-73AC-4223-8760-52045C6FACBC}"/>
+    <hyperlink ref="B192" r:id="rId191" display="134" xr:uid="{41AFC8F4-8799-4832-9ED0-92547FEA0D00}"/>
+    <hyperlink ref="B193" r:id="rId192" display="803" xr:uid="{ADF93EF4-CBF4-4F92-A36B-E43E64D87F43}"/>
+    <hyperlink ref="B194" r:id="rId193" display="138" xr:uid="{928DCD45-5717-4AD3-A2EE-D1E3534C1007}"/>
+    <hyperlink ref="B195" r:id="rId194" display="10" xr:uid="{64AEA05B-0742-4D32-9C79-3C5BE7AFDB79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId186"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId195"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83157AE-F0B9-4BD6-97B4-4E2474D56662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857E33A-1046-4176-8B8A-64F642F200DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1679,9 +1679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E195" sqref="E195"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H195" sqref="H195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857E33A-1046-4176-8B8A-64F642F200DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E23E56-BA4C-4B3D-8D67-4B52D662C712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="290">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1193,6 +1193,73 @@
   </si>
   <si>
     <t>状态机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以形成最大正方形的矩形数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>224</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周赛第1题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同积元组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希，统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>224</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周赛第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点缀成线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1677,11 +1744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N195"/>
+  <dimension ref="A1:N198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H195" sqref="H195"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196:N198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4840,6 +4907,60 @@
       </c>
       <c r="E195" s="2" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A196" s="13">
+        <v>43847</v>
+      </c>
+      <c r="B196" s="16">
+        <v>1725</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A197" s="13">
+        <v>43847</v>
+      </c>
+      <c r="B197" s="16">
+        <v>1726</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A198" s="13">
+        <v>43847</v>
+      </c>
+      <c r="B198" s="16">
+        <v>1232</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N198" s="17" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5069,8 +5190,11 @@
     <hyperlink ref="B193" r:id="rId192" display="803" xr:uid="{ADF93EF4-CBF4-4F92-A36B-E43E64D87F43}"/>
     <hyperlink ref="B194" r:id="rId193" display="138" xr:uid="{928DCD45-5717-4AD3-A2EE-D1E3534C1007}"/>
     <hyperlink ref="B195" r:id="rId194" display="10" xr:uid="{64AEA05B-0742-4D32-9C79-3C5BE7AFDB79}"/>
+    <hyperlink ref="B196" r:id="rId195" display="1725" xr:uid="{16AA9E3C-CC8C-4234-B5E3-CADD06720C13}"/>
+    <hyperlink ref="B197" r:id="rId196" display="1726" xr:uid="{84F472D1-69B4-467A-A51F-1FE414F04452}"/>
+    <hyperlink ref="B198" r:id="rId197" display="1232" xr:uid="{6681BA0F-349B-4411-ADBE-304774DBFC8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId195"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId198"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E23E56-BA4C-4B3D-8D67-4B52D662C712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27B4EB5-4A1B-44F1-A273-330956E2C920}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="295">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1260,6 +1260,44 @@
   </si>
   <si>
     <t>点缀成线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名：41677</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接所有点的最小费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小生成树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>41442</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1744,11 +1782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N198"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A196" sqref="A196:N198"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A200" sqref="A200:N201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4961,6 +4999,46 @@
       </c>
       <c r="N198" s="17" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A199" s="13">
+        <v>43848</v>
+      </c>
+      <c r="B199" s="16">
+        <v>721</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N199" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A200" s="13">
+        <v>43849</v>
+      </c>
+      <c r="B200" s="16">
+        <v>1584</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N200" s="18" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5193,8 +5271,10 @@
     <hyperlink ref="B196" r:id="rId195" display="1725" xr:uid="{16AA9E3C-CC8C-4234-B5E3-CADD06720C13}"/>
     <hyperlink ref="B197" r:id="rId196" display="1726" xr:uid="{84F472D1-69B4-467A-A51F-1FE414F04452}"/>
     <hyperlink ref="B198" r:id="rId197" display="1232" xr:uid="{6681BA0F-349B-4411-ADBE-304774DBFC8A}"/>
+    <hyperlink ref="B199" r:id="rId198" display="721" xr:uid="{A901D0AF-446F-4FE0-89AF-48124F99BFF6}"/>
+    <hyperlink ref="B200" r:id="rId199" display="1584" xr:uid="{DEF8B74B-FF70-4395-BF3A-BFDE4C46B924}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId198"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId200"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27B4EB5-4A1B-44F1-A273-330956E2C920}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F07C6-56A6-46D8-91FD-B35C86FBD2B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="297">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1275,10 +1275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最小生成树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1298,6 +1294,18 @@
       </rPr>
       <t>41442</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图，最小生成树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个数的最大乘积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名：41178</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1782,11 +1790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N200"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A200" sqref="A200:N201"/>
+      <selection pane="bottomLeft" activeCell="N202" sqref="N202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -5035,10 +5043,30 @@
         <v>94</v>
       </c>
       <c r="E200" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N200" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="N200" s="18" t="s">
-        <v>294</v>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A201" s="13">
+        <v>43850</v>
+      </c>
+      <c r="B201" s="16">
+        <v>628</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N201" s="17" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5273,8 +5301,9 @@
     <hyperlink ref="B198" r:id="rId197" display="1232" xr:uid="{6681BA0F-349B-4411-ADBE-304774DBFC8A}"/>
     <hyperlink ref="B199" r:id="rId198" display="721" xr:uid="{A901D0AF-446F-4FE0-89AF-48124F99BFF6}"/>
     <hyperlink ref="B200" r:id="rId199" display="1584" xr:uid="{DEF8B74B-FF70-4395-BF3A-BFDE4C46B924}"/>
+    <hyperlink ref="B201" r:id="rId200" display="628" xr:uid="{D2E1A981-A6BB-41FD-86C4-836B5635AFD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId200"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId201"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F07C6-56A6-46D8-91FD-B35C86FBD2B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBC94FD-4DE0-41B7-8D86-98EE7E5C82E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="304">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1297,15 +1297,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图，最小生成树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三个数的最大乘积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排名：41178</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名：40931</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到最小生成树里的关键边和伪关键边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图，最小生成树，并查集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找数组的中心索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托普利茨矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组形式的整数加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱生气的书店老板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价多米诺骨牌的数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1790,11 +1818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N201"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N202" sqref="N202"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1803,7 +1831,7 @@
     <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="1" bestFit="1" customWidth="1"/>
@@ -5043,7 +5071,7 @@
         <v>94</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N200" s="18" t="s">
         <v>293</v>
@@ -5057,7 +5085,7 @@
         <v>628</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>14</v>
@@ -5066,7 +5094,111 @@
         <v>15</v>
       </c>
       <c r="N201" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A202" s="13">
+        <v>43851</v>
+      </c>
+      <c r="B202" s="16">
+        <v>1489</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="N202" s="17" t="s">
         <v>296</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A203" s="13">
+        <v>44218</v>
+      </c>
+      <c r="B203" s="16">
+        <v>989</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N203" s="17"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A204" s="13">
+        <v>44222</v>
+      </c>
+      <c r="B204" s="16">
+        <v>1128</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N204" s="17"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A205" s="13">
+        <v>44224</v>
+      </c>
+      <c r="B205" s="16">
+        <v>724</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A206" s="13">
+        <v>44249</v>
+      </c>
+      <c r="B206" s="16">
+        <v>766</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A207" s="13">
+        <v>44250</v>
+      </c>
+      <c r="B207" s="16">
+        <v>1052</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5302,8 +5434,14 @@
     <hyperlink ref="B199" r:id="rId198" display="721" xr:uid="{A901D0AF-446F-4FE0-89AF-48124F99BFF6}"/>
     <hyperlink ref="B200" r:id="rId199" display="1584" xr:uid="{DEF8B74B-FF70-4395-BF3A-BFDE4C46B924}"/>
     <hyperlink ref="B201" r:id="rId200" display="628" xr:uid="{D2E1A981-A6BB-41FD-86C4-836B5635AFD2}"/>
+    <hyperlink ref="B202" r:id="rId201" display="1489" xr:uid="{9F97434A-F3FA-4D3C-A56F-9E9944BE8547}"/>
+    <hyperlink ref="B205" r:id="rId202" display="724" xr:uid="{9FA5AB0F-C6FD-4210-8306-5A2B250A55ED}"/>
+    <hyperlink ref="B206" r:id="rId203" display="766" xr:uid="{E02993E2-6010-41BD-A792-11014C1F9C19}"/>
+    <hyperlink ref="B203" r:id="rId204" display="989" xr:uid="{553489B8-8989-41FB-9EAC-0E9A89A852C9}"/>
+    <hyperlink ref="B207" r:id="rId205" display="1052" xr:uid="{46AEBFCC-C6FA-4982-BEF7-72673EA49D64}"/>
+    <hyperlink ref="B204" r:id="rId206" display="1128" xr:uid="{55731347-36D6-496F-A01C-5EF02C7469C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId201"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId207"/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\root\LeetCode-Cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBC94FD-4DE0-41B7-8D86-98EE7E5C82E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8002C6-4F55-4140-B1CA-272E260CD2B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="309">
   <si>
     <t>2刷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -952,22 +952,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>223</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周赛第1题</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排名：54223</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -980,28 +964,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>排名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>53910</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1134,28 +1096,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>排名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>44947</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>移除最多的同行或同列石头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1200,22 +1140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>224</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周赛第1题</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同积元组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1224,41 +1148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>224</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周赛第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>题</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点缀成线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1275,28 +1164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>排名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>41442</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三个数的最大乘积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1334,6 +1201,50 @@
   </si>
   <si>
     <t>等价多米诺骨牌的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉搜索树节点最小距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，优先队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周赛题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeetCode-CN排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223周赛第1题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名：53910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名：44947</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224周赛第1题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224周赛第2题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名：41442</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1341,7 +1252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1429,20 +1340,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1486,7 +1383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1499,13 +1396,10 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1818,11 +1712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N207"/>
+  <dimension ref="A1:P208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M199" sqref="M199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1838,53 +1732,63 @@
     <col min="9" max="9" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.75" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="22.75" style="2" customWidth="1"/>
+    <col min="15" max="16" width="9" style="2"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="N1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>44123</v>
       </c>
       <c r="B2" s="10">
@@ -1898,8 +1802,8 @@
       </c>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>44124</v>
       </c>
       <c r="B3" s="10">
@@ -1913,8 +1817,8 @@
       </c>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>44125</v>
       </c>
       <c r="B4" s="10">
@@ -1928,8 +1832,8 @@
       </c>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>44126</v>
       </c>
       <c r="B5" s="10">
@@ -1943,8 +1847,8 @@
       </c>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>44127</v>
       </c>
       <c r="B6" s="10">
@@ -1957,8 +1861,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>44127</v>
       </c>
       <c r="B7" s="10">
@@ -1971,8 +1875,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>44130</v>
       </c>
       <c r="B8" s="10">
@@ -1985,8 +1889,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>44130</v>
       </c>
       <c r="B9" s="10">
@@ -1999,8 +1903,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <v>44131</v>
       </c>
       <c r="B10" s="10">
@@ -2013,8 +1917,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>44132</v>
       </c>
       <c r="B11" s="10">
@@ -2027,8 +1931,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>44132</v>
       </c>
       <c r="B12" s="10">
@@ -2041,8 +1945,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <v>44133</v>
       </c>
       <c r="B13" s="10">
@@ -2055,8 +1959,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>44135</v>
       </c>
       <c r="B14" s="10">
@@ -2069,8 +1973,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <v>44135</v>
       </c>
       <c r="B15" s="10">
@@ -2083,8 +1987,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>44135</v>
       </c>
       <c r="B16" s="10">
@@ -2098,7 +2002,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>44137</v>
       </c>
       <c r="B17" s="10">
@@ -2112,7 +2016,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>44137</v>
       </c>
       <c r="B18" s="10">
@@ -2126,7 +2030,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>44138</v>
       </c>
       <c r="B19" s="6">
@@ -2157,7 +2061,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>44139</v>
       </c>
       <c r="B20" s="10">
@@ -2171,7 +2075,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>44140</v>
       </c>
       <c r="B21" s="10">
@@ -2198,7 +2102,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>44140</v>
       </c>
       <c r="B22" s="10">
@@ -2212,7 +2116,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>44140</v>
       </c>
       <c r="B23" s="10">
@@ -2242,7 +2146,7 @@
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>44141</v>
       </c>
       <c r="B24" s="10">
@@ -2263,7 +2167,7 @@
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>44142</v>
       </c>
       <c r="B25" s="10">
@@ -2277,7 +2181,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>44142</v>
       </c>
       <c r="B26" s="10">
@@ -2291,7 +2195,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>44142</v>
       </c>
       <c r="B27" s="10">
@@ -2305,7 +2209,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>44144</v>
       </c>
       <c r="B28" s="10">
@@ -2319,7 +2223,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>44145</v>
       </c>
       <c r="B29" s="10">
@@ -2333,7 +2237,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>44145</v>
       </c>
       <c r="B30" s="10">
@@ -2347,7 +2251,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>44145</v>
       </c>
       <c r="B31" s="10">
@@ -2361,7 +2265,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>44147</v>
       </c>
       <c r="B32" s="10">
@@ -2375,7 +2279,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>44147</v>
       </c>
       <c r="B33" s="10">
@@ -2389,7 +2293,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>44147</v>
       </c>
       <c r="B34" s="10">
@@ -2403,7 +2307,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>44147</v>
       </c>
       <c r="B35" s="10">
@@ -2417,7 +2321,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>44148</v>
       </c>
       <c r="B36" s="10">
@@ -2431,7 +2335,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>44148</v>
       </c>
       <c r="B37" s="10">
@@ -2445,7 +2349,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>44151</v>
       </c>
       <c r="B38" s="10">
@@ -2459,7 +2363,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>44151</v>
       </c>
       <c r="B39" s="10">
@@ -2473,7 +2377,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>44151</v>
       </c>
       <c r="B40" s="10">
@@ -2487,7 +2391,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>44152</v>
       </c>
       <c r="B41" s="10">
@@ -2501,7 +2405,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>44172</v>
       </c>
       <c r="B42" s="10">
@@ -2515,7 +2419,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>44172</v>
       </c>
       <c r="B43" s="10">
@@ -2529,7 +2433,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>44173</v>
       </c>
       <c r="B44" s="10">
@@ -2543,7 +2447,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>44174</v>
       </c>
       <c r="B45" s="10">
@@ -2557,7 +2461,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>44174</v>
       </c>
       <c r="B46" s="10">
@@ -2571,7 +2475,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
+      <c r="A47" s="12">
         <v>44174</v>
       </c>
       <c r="B47" s="10">
@@ -2585,7 +2489,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>44174</v>
       </c>
       <c r="B48" s="10">
@@ -2599,7 +2503,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
+      <c r="A49" s="12">
         <v>44174</v>
       </c>
       <c r="B49" s="10">
@@ -2613,7 +2517,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+      <c r="A50" s="12">
         <v>44175</v>
       </c>
       <c r="B50" s="10">
@@ -2627,7 +2531,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>44175</v>
       </c>
       <c r="B51" s="10">
@@ -2641,7 +2545,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>44175</v>
       </c>
       <c r="B52" s="10">
@@ -2655,7 +2559,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="13">
+      <c r="A53" s="12">
         <v>44175</v>
       </c>
       <c r="B53" s="10">
@@ -2669,7 +2573,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
+      <c r="A54" s="12">
         <v>44175</v>
       </c>
       <c r="B54" s="10">
@@ -2683,7 +2587,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>44175</v>
       </c>
       <c r="B55" s="10">
@@ -2697,7 +2601,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
+      <c r="A56" s="12">
         <v>44175</v>
       </c>
       <c r="B56" s="10">
@@ -2711,7 +2615,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="13">
+      <c r="A57" s="12">
         <v>44175</v>
       </c>
       <c r="B57" s="10">
@@ -2725,7 +2629,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
+      <c r="A58" s="12">
         <v>44176</v>
       </c>
       <c r="B58" s="10">
@@ -2739,7 +2643,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <v>44176</v>
       </c>
       <c r="B59" s="10">
@@ -2753,7 +2657,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="13">
+      <c r="A60" s="12">
         <v>44176</v>
       </c>
       <c r="B60" s="10">
@@ -2767,7 +2671,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="13">
+      <c r="A61" s="12">
         <v>44176</v>
       </c>
       <c r="B61" s="10">
@@ -2781,7 +2685,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
+      <c r="A62" s="12">
         <v>44176</v>
       </c>
       <c r="B62" s="10">
@@ -2795,7 +2699,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="13">
+      <c r="A63" s="12">
         <v>44176</v>
       </c>
       <c r="B63" s="10">
@@ -2809,7 +2713,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="13">
+      <c r="A64" s="12">
         <v>44179</v>
       </c>
       <c r="B64" s="10">
@@ -2823,7 +2727,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="13">
+      <c r="A65" s="12">
         <v>44179</v>
       </c>
       <c r="B65" s="10">
@@ -2837,7 +2741,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="13">
+      <c r="A66" s="12">
         <v>44179</v>
       </c>
       <c r="B66" s="10">
@@ -2851,7 +2755,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="13">
+      <c r="A67" s="12">
         <v>44179</v>
       </c>
       <c r="B67" s="10">
@@ -2865,7 +2769,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="13">
+      <c r="A68" s="12">
         <v>44179</v>
       </c>
       <c r="B68" s="10">
@@ -2879,7 +2783,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="13">
+      <c r="A69" s="12">
         <v>44179</v>
       </c>
       <c r="B69" s="10">
@@ -2893,7 +2797,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="13">
+      <c r="A70" s="12">
         <v>44180</v>
       </c>
       <c r="B70" s="10">
@@ -2907,7 +2811,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="13">
+      <c r="A71" s="12">
         <v>44180</v>
       </c>
       <c r="B71" s="10">
@@ -2921,7 +2825,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
+      <c r="A72" s="12">
         <v>44180</v>
       </c>
       <c r="B72" s="10">
@@ -2935,7 +2839,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="13">
+      <c r="A73" s="12">
         <v>44180</v>
       </c>
       <c r="B73" s="10">
@@ -2949,7 +2853,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="13">
+      <c r="A74" s="12">
         <v>44180</v>
       </c>
       <c r="B74" s="10">
@@ -2963,7 +2867,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="13">
+      <c r="A75" s="12">
         <v>44180</v>
       </c>
       <c r="B75" s="10">
@@ -2977,7 +2881,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="13">
+      <c r="A76" s="12">
         <v>44180</v>
       </c>
       <c r="B76" s="10">
@@ -2991,7 +2895,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="13">
+      <c r="A77" s="12">
         <v>44180</v>
       </c>
       <c r="B77" s="10">
@@ -3005,7 +2909,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="13">
+      <c r="A78" s="12">
         <v>44180</v>
       </c>
       <c r="B78" s="10">
@@ -3019,7 +2923,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="13">
+      <c r="A79" s="12">
         <v>44180</v>
       </c>
       <c r="B79" s="10">
@@ -3033,7 +2937,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="13">
+      <c r="A80" s="12">
         <v>44180</v>
       </c>
       <c r="B80" s="10">
@@ -3047,7 +2951,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="13">
+      <c r="A81" s="12">
         <v>44180</v>
       </c>
       <c r="B81" s="10">
@@ -3061,7 +2965,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="13">
+      <c r="A82" s="12">
         <v>44181</v>
       </c>
       <c r="B82" s="10">
@@ -3075,7 +2979,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="13">
+      <c r="A83" s="12">
         <v>44181</v>
       </c>
       <c r="B83" s="10">
@@ -3089,7 +2993,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="13">
+      <c r="A84" s="12">
         <v>44181</v>
       </c>
       <c r="B84" s="10">
@@ -3103,7 +3007,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="13">
+      <c r="A85" s="12">
         <v>44181</v>
       </c>
       <c r="B85" s="10">
@@ -3117,7 +3021,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="13">
+      <c r="A86" s="12">
         <v>44181</v>
       </c>
       <c r="B86" s="10">
@@ -3131,7 +3035,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="13">
+      <c r="A87" s="12">
         <v>44181</v>
       </c>
       <c r="B87" s="10">
@@ -3145,7 +3049,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="13">
+      <c r="A88" s="12">
         <v>44181</v>
       </c>
       <c r="B88" s="10">
@@ -3159,7 +3063,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="13">
+      <c r="A89" s="12">
         <v>44181</v>
       </c>
       <c r="B89" s="10">
@@ -3173,7 +3077,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="13">
+      <c r="A90" s="12">
         <v>44181</v>
       </c>
       <c r="B90" s="10">
@@ -3187,7 +3091,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="13">
+      <c r="A91" s="12">
         <v>44181</v>
       </c>
       <c r="B91" s="10">
@@ -3201,7 +3105,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="13">
+      <c r="A92" s="12">
         <v>44182</v>
       </c>
       <c r="B92" s="10">
@@ -3215,7 +3119,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="13">
+      <c r="A93" s="12">
         <v>44183</v>
       </c>
       <c r="B93" s="10">
@@ -3229,7 +3133,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="13">
+      <c r="A94" s="12">
         <v>44183</v>
       </c>
       <c r="B94" s="10">
@@ -3243,7 +3147,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="13">
+      <c r="A95" s="12">
         <v>44183</v>
       </c>
       <c r="B95" s="10">
@@ -3257,7 +3161,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="13">
+      <c r="A96" s="12">
         <v>44186</v>
       </c>
       <c r="B96" s="10">
@@ -3286,7 +3190,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="13">
+      <c r="A97" s="12">
         <v>44187</v>
       </c>
       <c r="B97" s="10">
@@ -3303,7 +3207,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="13">
+      <c r="A98" s="12">
         <v>44187</v>
       </c>
       <c r="B98" s="10">
@@ -3320,7 +3224,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="13">
+      <c r="A99" s="12">
         <v>44187</v>
       </c>
       <c r="B99" s="10">
@@ -3337,10 +3241,10 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="13">
+      <c r="A100" s="12">
         <v>44188</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="15">
         <v>193</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -3354,10 +3258,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="13">
+      <c r="A101" s="12">
         <v>44188</v>
       </c>
-      <c r="B101" s="16">
+      <c r="B101" s="15">
         <v>387</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -3371,10 +3275,10 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="13">
+      <c r="A102" s="12">
         <v>44188</v>
       </c>
-      <c r="B102" s="16">
+      <c r="B102" s="15">
         <v>785</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -3388,10 +3292,10 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="13">
+      <c r="A103" s="12">
         <v>44189</v>
       </c>
-      <c r="B103" s="16">
+      <c r="B103" s="15">
         <v>1114</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -3405,10 +3309,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="13">
+      <c r="A104" s="12">
         <v>44189</v>
       </c>
-      <c r="B104" s="16">
+      <c r="B104" s="15">
         <v>135</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -3419,10 +3323,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="13">
+      <c r="A105" s="12">
         <v>44189</v>
       </c>
-      <c r="B105" s="16">
+      <c r="B105" s="15">
         <v>3</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -3436,10 +3340,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="13">
+      <c r="A106" s="12">
         <v>44189</v>
       </c>
-      <c r="B106" s="16">
+      <c r="B106" s="15">
         <v>5</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -3450,10 +3354,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="13">
+      <c r="A107" s="12">
         <v>44189</v>
       </c>
-      <c r="B107" s="16">
+      <c r="B107" s="15">
         <v>8</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -3470,10 +3374,10 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="13">
+      <c r="A108" s="12">
         <v>44189</v>
       </c>
-      <c r="B108" s="16">
+      <c r="B108" s="15">
         <v>11</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -3487,10 +3391,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="13">
+      <c r="A109" s="12">
         <v>44190</v>
       </c>
-      <c r="B109" s="16">
+      <c r="B109" s="15">
         <v>455</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -3501,10 +3405,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="13">
+      <c r="A110" s="12">
         <v>44190</v>
       </c>
-      <c r="B110" s="16">
+      <c r="B110" s="15">
         <v>12</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -3515,10 +3419,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="13">
+      <c r="A111" s="12">
         <v>44191</v>
       </c>
-      <c r="B111" s="16">
+      <c r="B111" s="15">
         <v>84</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -3535,10 +3439,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="13">
+      <c r="A112" s="12">
         <v>44191</v>
       </c>
-      <c r="B112" s="16">
+      <c r="B112" s="15">
         <v>85</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -3555,10 +3459,10 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="13">
+      <c r="A113" s="12">
         <v>44191</v>
       </c>
-      <c r="B113" s="16">
+      <c r="B113" s="15">
         <v>16</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -3575,10 +3479,10 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="13">
+      <c r="A114" s="12">
         <v>44191</v>
       </c>
-      <c r="B114" s="16">
+      <c r="B114" s="15">
         <v>17</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -3592,10 +3496,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="13">
+      <c r="A115" s="12">
         <v>44193</v>
       </c>
-      <c r="B115" s="16">
+      <c r="B115" s="15">
         <v>205</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -3606,10 +3510,10 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="13">
+      <c r="A116" s="12">
         <v>44193</v>
       </c>
-      <c r="B116" s="16">
+      <c r="B116" s="15">
         <v>22</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -3623,10 +3527,10 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="13">
+      <c r="A117" s="12">
         <v>44193</v>
       </c>
-      <c r="B117" s="16">
+      <c r="B117" s="15">
         <v>18</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -3643,10 +3547,10 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="13">
+      <c r="A118" s="12">
         <v>44193</v>
       </c>
-      <c r="B118" s="16">
+      <c r="B118" s="15">
         <v>19</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -3660,10 +3564,10 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="13">
+      <c r="A119" s="12">
         <v>44194</v>
       </c>
-      <c r="B119" s="16">
+      <c r="B119" s="15">
         <v>188</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -3677,10 +3581,10 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="13">
+      <c r="A120" s="12">
         <v>44194</v>
       </c>
-      <c r="B120" s="16">
+      <c r="B120" s="15">
         <v>330</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -3694,10 +3598,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="13">
+      <c r="A121" s="12">
         <v>44194</v>
       </c>
-      <c r="B121" s="16">
+      <c r="B121" s="15">
         <v>24</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -3711,10 +3615,10 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="13">
+      <c r="A122" s="12">
         <v>44194</v>
       </c>
-      <c r="B122" s="16">
+      <c r="B122" s="15">
         <v>29</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -3728,10 +3632,10 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="13">
+      <c r="A123" s="12">
         <v>44194</v>
       </c>
-      <c r="B123" s="16">
+      <c r="B123" s="15">
         <v>31</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -3745,10 +3649,10 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="13">
+      <c r="A124" s="12">
         <v>44194</v>
       </c>
-      <c r="B124" s="16">
+      <c r="B124" s="15">
         <v>33</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -3762,10 +3666,10 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="13">
+      <c r="A125" s="12">
         <v>44194</v>
       </c>
-      <c r="B125" s="16">
+      <c r="B125" s="15">
         <v>34</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -3779,10 +3683,10 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="13">
+      <c r="A126" s="12">
         <v>44194</v>
       </c>
-      <c r="B126" s="16">
+      <c r="B126" s="15">
         <v>36</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -3793,10 +3697,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="13">
+      <c r="A127" s="12">
         <v>44195</v>
       </c>
-      <c r="B127" s="16">
+      <c r="B127" s="15">
         <v>1046</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -3810,10 +3714,10 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="13">
+      <c r="A128" s="12">
         <v>44195</v>
       </c>
-      <c r="B128" s="16">
+      <c r="B128" s="15">
         <v>78</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -3827,10 +3731,10 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="13">
+      <c r="A129" s="12">
         <v>44195</v>
       </c>
-      <c r="B129" s="16">
+      <c r="B129" s="15">
         <v>77</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -3847,10 +3751,10 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="13">
+      <c r="A130" s="12">
         <v>44195</v>
       </c>
-      <c r="B130" s="16">
+      <c r="B130" s="15">
         <v>75</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -3861,10 +3765,10 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="13">
+      <c r="A131" s="12">
         <v>44195</v>
       </c>
-      <c r="B131" s="16">
+      <c r="B131" s="15">
         <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -3878,10 +3782,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="13">
+      <c r="A132" s="12">
         <v>44195</v>
       </c>
-      <c r="B132" s="16">
+      <c r="B132" s="15">
         <v>73</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -3892,10 +3796,10 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="13">
+      <c r="A133" s="12">
         <v>44195</v>
       </c>
-      <c r="B133" s="16">
+      <c r="B133" s="15">
         <v>71</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -3909,10 +3813,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="13">
+      <c r="A134" s="12">
         <v>44195</v>
       </c>
-      <c r="B134" s="16">
+      <c r="B134" s="15">
         <v>64</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -3926,10 +3830,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="13">
+      <c r="A135" s="12">
         <v>44195</v>
       </c>
-      <c r="B135" s="16">
+      <c r="B135" s="15">
         <v>63</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -3943,10 +3847,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="13">
+      <c r="A136" s="12">
         <v>44195</v>
       </c>
-      <c r="B136" s="16">
+      <c r="B136" s="15">
         <v>61</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -3960,10 +3864,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="13">
+      <c r="A137" s="12">
         <v>44200</v>
       </c>
-      <c r="B137" s="16">
+      <c r="B137" s="15">
         <v>509</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -3977,10 +3881,10 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="13">
+      <c r="A138" s="12">
         <v>43835</v>
       </c>
-      <c r="B138" s="16">
+      <c r="B138" s="15">
         <v>830</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -3994,10 +3898,10 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="13">
+      <c r="A139" s="12">
         <v>43836</v>
       </c>
-      <c r="B139" s="16">
+      <c r="B139" s="15">
         <v>203</v>
       </c>
       <c r="C139" s="2" t="s">
@@ -4011,10 +3915,10 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="13">
+      <c r="A140" s="12">
         <v>43836</v>
       </c>
-      <c r="B140" s="16">
+      <c r="B140" s="15">
         <v>204</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -4028,10 +3932,10 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="13">
+      <c r="A141" s="12">
         <v>43836</v>
       </c>
-      <c r="B141" s="16">
+      <c r="B141" s="15">
         <v>39</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -4045,10 +3949,10 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="13">
+      <c r="A142" s="12">
         <v>43836</v>
       </c>
-      <c r="B142" s="16">
+      <c r="B142" s="15">
         <v>40</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -4065,10 +3969,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="13">
+      <c r="A143" s="12">
         <v>43836</v>
       </c>
-      <c r="B143" s="16">
+      <c r="B143" s="15">
         <v>43</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -4082,10 +3986,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="13">
+      <c r="A144" s="12">
         <v>43836</v>
       </c>
-      <c r="B144" s="16">
+      <c r="B144" s="15">
         <v>46</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -4099,10 +4003,10 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A145" s="13">
+      <c r="A145" s="12">
         <v>43836</v>
       </c>
-      <c r="B145" s="16">
+      <c r="B145" s="15">
         <v>47</v>
       </c>
       <c r="C145" s="2" t="s">
@@ -4116,10 +4020,10 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146" s="13">
+      <c r="A146" s="12">
         <v>43836</v>
       </c>
-      <c r="B146" s="16">
+      <c r="B146" s="15">
         <v>48</v>
       </c>
       <c r="C146" s="2" t="s">
@@ -4133,10 +4037,10 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A147" s="13">
+      <c r="A147" s="12">
         <v>43836</v>
       </c>
-      <c r="B147" s="16">
+      <c r="B147" s="15">
         <v>399</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -4150,10 +4054,10 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A148" s="13">
+      <c r="A148" s="12">
         <v>43837</v>
       </c>
-      <c r="B148" s="16">
+      <c r="B148" s="15">
         <v>50</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -4167,10 +4071,10 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A149" s="13">
+      <c r="A149" s="12">
         <v>43837</v>
       </c>
-      <c r="B149" s="16">
+      <c r="B149" s="15">
         <v>54</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -4181,10 +4085,10 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="13">
+      <c r="A150" s="12">
         <v>43837</v>
       </c>
-      <c r="B150" s="16">
+      <c r="B150" s="15">
         <v>55</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -4198,10 +4102,10 @@
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A151" s="13">
+      <c r="A151" s="12">
         <v>43837</v>
       </c>
-      <c r="B151" s="16">
+      <c r="B151" s="15">
         <v>56</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -4215,10 +4119,10 @@
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152" s="13">
+      <c r="A152" s="12">
         <v>43837</v>
       </c>
-      <c r="B152" s="16">
+      <c r="B152" s="15">
         <v>59</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -4229,10 +4133,10 @@
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153" s="13">
+      <c r="A153" s="12">
         <v>43837</v>
       </c>
-      <c r="B153" s="16">
+      <c r="B153" s="15">
         <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -4246,10 +4150,10 @@
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A154" s="13">
+      <c r="A154" s="12">
         <v>43837</v>
       </c>
-      <c r="B154" s="16">
+      <c r="B154" s="15">
         <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -4263,10 +4167,10 @@
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A155" s="13">
+      <c r="A155" s="12">
         <v>43837</v>
       </c>
-      <c r="B155" s="16">
+      <c r="B155" s="15">
         <v>82</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -4280,10 +4184,10 @@
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="13">
+      <c r="A156" s="12">
         <v>43837</v>
       </c>
-      <c r="B156" s="16">
+      <c r="B156" s="15">
         <v>206</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -4297,10 +4201,10 @@
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A157" s="13">
+      <c r="A157" s="12">
         <v>43838</v>
       </c>
-      <c r="B157" s="16">
+      <c r="B157" s="15">
         <v>189</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -4312,15 +4216,15 @@
       <c r="E157" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="N157" s="17" t="s">
+      <c r="N157" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A158" s="13">
+      <c r="A158" s="12">
         <v>43838</v>
       </c>
-      <c r="B158" s="16">
+      <c r="B158" s="15">
         <v>81</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -4334,10 +4238,10 @@
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A159" s="13">
+      <c r="A159" s="12">
         <v>43838</v>
       </c>
-      <c r="B159" s="16">
+      <c r="B159" s="15">
         <v>86</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -4348,10 +4252,10 @@
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A160" s="13">
+      <c r="A160" s="12">
         <v>43839</v>
       </c>
-      <c r="B160" s="16">
+      <c r="B160" s="15">
         <v>123</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -4363,15 +4267,15 @@
       <c r="E160" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N160" s="17" t="s">
+      <c r="N160" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A161" s="13">
+      <c r="A161" s="12">
         <v>43839</v>
       </c>
-      <c r="B161" s="16">
+      <c r="B161" s="15">
         <v>89</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -4385,10 +4289,10 @@
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A162" s="13">
+      <c r="A162" s="12">
         <v>43839</v>
       </c>
-      <c r="B162" s="16">
+      <c r="B162" s="15">
         <v>90</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -4402,10 +4306,10 @@
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A163" s="13">
+      <c r="A163" s="12">
         <v>43839</v>
       </c>
-      <c r="B163" s="16">
+      <c r="B163" s="15">
         <v>91</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -4419,10 +4323,10 @@
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A164" s="13">
+      <c r="A164" s="12">
         <v>43839</v>
       </c>
-      <c r="B164" s="16">
+      <c r="B164" s="15">
         <v>92</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -4436,10 +4340,10 @@
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A165" s="13">
+      <c r="A165" s="12">
         <v>43840</v>
       </c>
-      <c r="B165" s="16">
+      <c r="B165" s="15">
         <v>228</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -4453,10 +4357,10 @@
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A166" s="13">
+      <c r="A166" s="12">
         <v>43840</v>
       </c>
-      <c r="B166" s="16">
+      <c r="B166" s="15">
         <v>5649</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -4468,62 +4372,62 @@
       <c r="E166" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="N166" s="1" t="s">
+      <c r="N166" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A167" s="12">
+        <v>43841</v>
+      </c>
+      <c r="B167" s="15">
+        <v>1202</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N167" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A167" s="13">
-        <v>43841</v>
-      </c>
-      <c r="B167" s="16">
-        <v>1202</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E167" s="2" t="s">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168" s="12">
+        <v>43842</v>
+      </c>
+      <c r="B168" s="15">
+        <v>1203</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="N167" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A168" s="13">
-        <v>43842</v>
-      </c>
-      <c r="B168" s="16">
-        <v>1203</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E168" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="N168" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169" s="12">
+        <v>43842</v>
+      </c>
+      <c r="B169" s="15">
+        <v>93</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="N168" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A169" s="13">
-        <v>43842</v>
-      </c>
-      <c r="B169" s="16">
-        <v>93</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>94</v>
@@ -4533,187 +4437,187 @@
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A170" s="13">
+      <c r="A170" s="12">
         <v>43842</v>
       </c>
-      <c r="B170" s="16">
+      <c r="B170" s="15">
         <v>94</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E170" s="2" t="s">
+      <c r="G170" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A171" s="12">
+        <v>43842</v>
+      </c>
+      <c r="B171" s="15">
+        <v>1020</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G170" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A171" s="13">
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A172" s="12">
         <v>43842</v>
       </c>
-      <c r="B171" s="16">
-        <v>1020</v>
-      </c>
-      <c r="C171" s="2" t="s">
+      <c r="B172" s="15">
+        <v>102</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E171" s="2" t="s">
+      <c r="D172" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173" s="12">
+        <v>43842</v>
+      </c>
+      <c r="B173" s="15">
+        <v>98</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A172" s="13">
+      <c r="D173" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A174" s="12">
         <v>43842</v>
       </c>
-      <c r="B172" s="16">
-        <v>102</v>
-      </c>
-      <c r="C172" s="2" t="s">
+      <c r="B174" s="15">
+        <v>96</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A173" s="13">
-        <v>43842</v>
-      </c>
-      <c r="B173" s="16">
-        <v>98</v>
-      </c>
-      <c r="C173" s="2" t="s">
+      <c r="D174" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A175" s="12">
+        <v>43843</v>
+      </c>
+      <c r="B175" s="15">
+        <v>605</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N175" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A174" s="13">
-        <v>43842</v>
-      </c>
-      <c r="B174" s="16">
-        <v>96</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A175" s="13">
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A176" s="12">
         <v>43843</v>
       </c>
-      <c r="B175" s="16">
-        <v>605</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N175" s="17" t="s">
+      <c r="B176" s="15">
+        <v>239</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A176" s="13">
-        <v>43843</v>
-      </c>
-      <c r="B176" s="16">
-        <v>239</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E176" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A177" s="12">
+        <v>43843</v>
+      </c>
+      <c r="B177" s="15">
+        <v>105</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A178" s="12">
+        <v>43843</v>
+      </c>
+      <c r="B178" s="15">
+        <v>106</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A177" s="13">
+      <c r="D178" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A179" s="12">
         <v>43843</v>
       </c>
-      <c r="B177" s="16">
-        <v>105</v>
-      </c>
-      <c r="C177" s="2" t="s">
+      <c r="B179" s="15">
+        <v>95</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A178" s="13">
+      <c r="D179" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A180" s="12">
         <v>43843</v>
       </c>
-      <c r="B178" s="16">
-        <v>106</v>
-      </c>
-      <c r="C178" s="2" t="s">
+      <c r="B180" s="15">
+        <v>684</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A179" s="13">
-        <v>43843</v>
-      </c>
-      <c r="B179" s="16">
-        <v>95</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A180" s="13">
-        <v>43843</v>
-      </c>
-      <c r="B180" s="16">
-        <v>684</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>94</v>
@@ -4723,31 +4627,31 @@
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A181" s="13">
+      <c r="A181" s="12">
         <v>43843</v>
       </c>
-      <c r="B181" s="16">
+      <c r="B181" s="15">
         <v>109</v>
       </c>
       <c r="C181" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A182" s="12">
+        <v>43843</v>
+      </c>
+      <c r="B182" s="15">
+        <v>113</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A182" s="13">
-        <v>43843</v>
-      </c>
-      <c r="B182" s="16">
-        <v>113</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>94</v>
@@ -4757,99 +4661,99 @@
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A183" s="13">
+      <c r="A183" s="12">
         <v>43843</v>
       </c>
-      <c r="B183" s="16">
+      <c r="B183" s="15">
         <v>114</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A184" s="12">
+        <v>43843</v>
+      </c>
+      <c r="B184" s="15">
+        <v>117</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A184" s="13">
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A185" s="12">
         <v>43843</v>
       </c>
-      <c r="B184" s="16">
-        <v>117</v>
-      </c>
-      <c r="C184" s="2" t="s">
+      <c r="B185" s="15">
+        <v>129</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E184" s="2" t="s">
+      <c r="D185" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A185" s="13">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A186" s="12">
         <v>43843</v>
       </c>
-      <c r="B185" s="16">
-        <v>129</v>
-      </c>
-      <c r="C185" s="2" t="s">
+      <c r="B186" s="15">
+        <v>130</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E185" s="2" t="s">
+      <c r="D186" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A186" s="13">
-        <v>43843</v>
-      </c>
-      <c r="B186" s="16">
-        <v>130</v>
-      </c>
-      <c r="C186" s="2" t="s">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A187" s="12">
+        <v>43844</v>
+      </c>
+      <c r="B187" s="15">
+        <v>1018</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N187" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A187" s="13">
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A188" s="12">
         <v>43844</v>
       </c>
-      <c r="B187" s="16">
-        <v>1018</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N187" s="17" t="s">
+      <c r="B188" s="15">
+        <v>131</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A188" s="13">
-        <v>43844</v>
-      </c>
-      <c r="B188" s="16">
-        <v>131</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>94</v>
@@ -4859,34 +4763,34 @@
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A189" s="13">
+      <c r="A189" s="12">
         <v>43845</v>
       </c>
-      <c r="B189" s="16">
+      <c r="B189" s="15">
         <v>947</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="N189" s="18" t="s">
-        <v>273</v>
+        <v>237</v>
+      </c>
+      <c r="N189" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A190" s="13">
+      <c r="A190" s="12">
         <v>43845</v>
       </c>
-      <c r="B190" s="16">
+      <c r="B190" s="15">
         <v>4</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>7</v>
@@ -4896,68 +4800,68 @@
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A191" s="13">
+      <c r="A191" s="12">
         <v>43845</v>
       </c>
-      <c r="B191" s="16">
+      <c r="B191" s="15">
         <v>133</v>
       </c>
       <c r="C191" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A192" s="12">
+        <v>43845</v>
+      </c>
+      <c r="B192" s="15">
+        <v>134</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A193" s="12">
+        <v>43846</v>
+      </c>
+      <c r="B193" s="15">
+        <v>803</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A192" s="13">
-        <v>43845</v>
-      </c>
-      <c r="B192" s="16">
-        <v>134</v>
-      </c>
-      <c r="C192" s="2" t="s">
+      <c r="D193" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A193" s="13">
+      <c r="N193" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A194" s="12">
         <v>43846</v>
       </c>
-      <c r="B193" s="16">
-        <v>803</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N193" s="17" t="s">
+      <c r="B194" s="15">
+        <v>138</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A194" s="13">
-        <v>43846</v>
-      </c>
-      <c r="B194" s="16">
-        <v>138</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>94</v>
@@ -4966,126 +4870,126 @@
         <v>171</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A195" s="13">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A195" s="12">
         <v>43846</v>
       </c>
-      <c r="B195" s="16">
+      <c r="B195" s="15">
         <v>10</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E195" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A196" s="12">
+        <v>43847</v>
+      </c>
+      <c r="B196" s="15">
+        <v>1725</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N196" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A197" s="12">
+        <v>43847</v>
+      </c>
+      <c r="B197" s="15">
+        <v>1726</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A196" s="13">
+      <c r="N197" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A198" s="12">
         <v>43847</v>
       </c>
-      <c r="B196" s="16">
-        <v>1725</v>
-      </c>
-      <c r="C196" s="2" t="s">
+      <c r="B198" s="15">
+        <v>1232</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N196" s="1" t="s">
+      <c r="D198" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N198" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A199" s="12">
+        <v>43848</v>
+      </c>
+      <c r="B199" s="15">
+        <v>721</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A197" s="13">
-        <v>43847</v>
-      </c>
-      <c r="B197" s="16">
-        <v>1726</v>
-      </c>
-      <c r="C197" s="2" t="s">
+      <c r="D199" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N199" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E197" s="2" t="s">
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A200" s="12">
+        <v>43849</v>
+      </c>
+      <c r="B200" s="15">
+        <v>1584</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="N197" s="1" t="s">
+      <c r="D200" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N200" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A201" s="12">
+        <v>43850</v>
+      </c>
+      <c r="B201" s="15">
+        <v>628</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A198" s="13">
-        <v>43847</v>
-      </c>
-      <c r="B198" s="16">
-        <v>1232</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N198" s="17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A199" s="13">
-        <v>43848</v>
-      </c>
-      <c r="B199" s="16">
-        <v>721</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="N199" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A200" s="13">
-        <v>43849</v>
-      </c>
-      <c r="B200" s="16">
-        <v>1584</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="N200" s="18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A201" s="13">
-        <v>43850</v>
-      </c>
-      <c r="B201" s="16">
-        <v>628</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>14</v>
@@ -5093,39 +4997,39 @@
       <c r="E201" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N201" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A202" s="13">
+      <c r="N201" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A202" s="12">
         <v>43851</v>
       </c>
-      <c r="B202" s="16">
+      <c r="B202" s="15">
         <v>1489</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="N202" s="17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A203" s="13">
+        <v>292</v>
+      </c>
+      <c r="N202" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A203" s="12">
         <v>44218</v>
       </c>
-      <c r="B203" s="16">
+      <c r="B203" s="15">
         <v>989</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>14</v>
@@ -5133,32 +5037,30 @@
       <c r="E203" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="N203" s="17"/>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A204" s="13">
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A204" s="12">
         <v>44222</v>
       </c>
-      <c r="B204" s="16">
+      <c r="B204" s="15">
         <v>1128</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N204" s="17"/>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A205" s="13">
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A205" s="12">
         <v>44224</v>
       </c>
-      <c r="B205" s="16">
+      <c r="B205" s="15">
         <v>724</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>35</v>
@@ -5167,15 +5069,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A206" s="13">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A206" s="12">
         <v>44249</v>
       </c>
-      <c r="B206" s="16">
+      <c r="B206" s="15">
         <v>766</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>35</v>
@@ -5184,21 +5086,44 @@
         <v>192</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A207" s="13">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A207" s="12">
         <v>44250</v>
       </c>
-      <c r="B207" s="16">
+      <c r="B207" s="15">
         <v>1052</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A208" s="12">
+        <v>44299</v>
+      </c>
+      <c r="B208" s="15">
+        <v>783</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="N208" s="2">
+        <v>37303</v>
+      </c>
+      <c r="O208" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5440,8 +5365,9 @@
     <hyperlink ref="B203" r:id="rId204" display="989" xr:uid="{553489B8-8989-41FB-9EAC-0E9A89A852C9}"/>
     <hyperlink ref="B207" r:id="rId205" display="1052" xr:uid="{46AEBFCC-C6FA-4982-BEF7-72673EA49D64}"/>
     <hyperlink ref="B204" r:id="rId206" display="1128" xr:uid="{55731347-36D6-496F-A01C-5EF02C7469C7}"/>
+    <hyperlink ref="B208" r:id="rId207" display="783" xr:uid="{BB95CD74-E194-4CCD-9D6B-503C55E696EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId207"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId208"/>
 </worksheet>
 </file>